--- a/data/output/FV2404_FV2310/UTILMD/55035.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55035.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18392" uniqueCount="1144">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18413" uniqueCount="1144">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3695,6 +3695,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U961" totalsRowShown="0">
+  <autoFilter ref="A1:U961"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3984,7 +4014,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U961"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -46092,5 +46125,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55035.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55035.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22190" uniqueCount="2089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21908" uniqueCount="2089">
   <si>
     <t>#</t>
   </si>
@@ -12436,9 +12436,7 @@
         <v>690</v>
       </c>
       <c r="K108" s="2"/>
-      <c r="L108" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L108" s="7"/>
       <c r="M108" s="2" t="s">
         <v>45</v>
       </c>
@@ -12492,9 +12490,7 @@
         <v>690</v>
       </c>
       <c r="K109" s="2"/>
-      <c r="L109" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L109" s="7"/>
       <c r="M109" s="2" t="s">
         <v>45</v>
       </c>
@@ -12548,9 +12544,7 @@
         <v>690</v>
       </c>
       <c r="K110" s="2"/>
-      <c r="L110" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L110" s="7"/>
       <c r="M110" s="2" t="s">
         <v>45</v>
       </c>
@@ -12976,9 +12970,7 @@
         <v>690</v>
       </c>
       <c r="K118" s="2"/>
-      <c r="L118" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L118" s="7"/>
       <c r="M118" s="2" t="s">
         <v>47</v>
       </c>
@@ -13229,46 +13221,44 @@
       </c>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="5" t="s">
         <v>1256</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2" t="s">
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K123" s="2" t="s">
+      <c r="K123" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="L123" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M123" s="2" t="s">
+      <c r="L123" s="7"/>
+      <c r="M123" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N123" s="2" t="s">
+      <c r="N123" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O123" s="2"/>
-      <c r="P123" s="2"/>
-      <c r="Q123" s="2"/>
-      <c r="R123" s="2"/>
-      <c r="S123" s="2"/>
-      <c r="T123" s="2"/>
-      <c r="U123" s="2" t="s">
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
+      <c r="R123" s="5"/>
+      <c r="S123" s="5"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="V123" s="2" t="s">
+      <c r="V123" s="5" t="s">
         <v>825</v>
       </c>
     </row>
@@ -13539,44 +13529,42 @@
       </c>
     </row>
     <row r="129" spans="1:22">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="5" t="s">
         <v>1262</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2" t="s">
+      <c r="C129" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K129" s="2"/>
-      <c r="L129" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M129" s="2" t="s">
+      <c r="K129" s="5"/>
+      <c r="L129" s="7"/>
+      <c r="M129" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N129" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O129" s="2"/>
-      <c r="P129" s="2"/>
-      <c r="Q129" s="2"/>
-      <c r="R129" s="2"/>
-      <c r="S129" s="2"/>
-      <c r="T129" s="2"/>
-      <c r="U129" s="2" t="s">
+      <c r="N129" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O129" s="5"/>
+      <c r="P129" s="5"/>
+      <c r="Q129" s="5"/>
+      <c r="R129" s="5"/>
+      <c r="S129" s="5"/>
+      <c r="T129" s="5"/>
+      <c r="U129" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V129" s="2"/>
+      <c r="V129" s="5"/>
     </row>
     <row r="130" spans="1:22">
       <c r="A130" s="2" t="s">
@@ -13768,9 +13756,7 @@
         <v>690</v>
       </c>
       <c r="K133" s="2"/>
-      <c r="L133" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L133" s="7"/>
       <c r="M133" s="2" t="s">
         <v>51</v>
       </c>
@@ -13797,44 +13783,42 @@
       <c r="V133" s="2"/>
     </row>
     <row r="134" spans="1:22">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="5" t="s">
         <v>1267</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2" t="s">
+      <c r="C134" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K134" s="2"/>
-      <c r="L134" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M134" s="2" t="s">
+      <c r="K134" s="5"/>
+      <c r="L134" s="7"/>
+      <c r="M134" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N134" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O134" s="2"/>
-      <c r="P134" s="2"/>
-      <c r="Q134" s="2"/>
-      <c r="R134" s="2"/>
-      <c r="S134" s="2"/>
-      <c r="T134" s="2"/>
-      <c r="U134" s="2" t="s">
+      <c r="N134" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O134" s="5"/>
+      <c r="P134" s="5"/>
+      <c r="Q134" s="5"/>
+      <c r="R134" s="5"/>
+      <c r="S134" s="5"/>
+      <c r="T134" s="5"/>
+      <c r="U134" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V134" s="2"/>
+      <c r="V134" s="5"/>
     </row>
     <row r="135" spans="1:22">
       <c r="A135" s="2" t="s">
@@ -14227,46 +14211,44 @@
       <c r="V142" s="9"/>
     </row>
     <row r="143" spans="1:22">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="5" t="s">
         <v>1275</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2" t="s">
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="K143" s="2" t="s">
+      <c r="K143" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="L143" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M143" s="2" t="s">
+      <c r="L143" s="7"/>
+      <c r="M143" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N143" s="2" t="s">
+      <c r="N143" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O143" s="2"/>
-      <c r="P143" s="2"/>
-      <c r="Q143" s="2"/>
-      <c r="R143" s="2"/>
-      <c r="S143" s="2"/>
-      <c r="T143" s="2"/>
-      <c r="U143" s="2" t="s">
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="5"/>
+      <c r="S143" s="5"/>
+      <c r="T143" s="5"/>
+      <c r="U143" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="V143" s="2" t="s">
+      <c r="V143" s="5" t="s">
         <v>826</v>
       </c>
     </row>
@@ -14753,44 +14735,42 @@
       <c r="V152" s="2"/>
     </row>
     <row r="153" spans="1:22">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="5" t="s">
         <v>1285</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
-      <c r="J153" s="2" t="s">
+      <c r="C153" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K153" s="2"/>
-      <c r="L153" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M153" s="2" t="s">
+      <c r="K153" s="5"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N153" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O153" s="2"/>
-      <c r="P153" s="2"/>
-      <c r="Q153" s="2"/>
-      <c r="R153" s="2"/>
-      <c r="S153" s="2"/>
-      <c r="T153" s="2"/>
-      <c r="U153" s="2" t="s">
+      <c r="N153" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O153" s="5"/>
+      <c r="P153" s="5"/>
+      <c r="Q153" s="5"/>
+      <c r="R153" s="5"/>
+      <c r="S153" s="5"/>
+      <c r="T153" s="5"/>
+      <c r="U153" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V153" s="2"/>
+      <c r="V153" s="5"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="2" t="s">
@@ -15028,9 +15008,7 @@
         <v>716</v>
       </c>
       <c r="K158" s="2"/>
-      <c r="L158" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L158" s="7"/>
       <c r="M158" s="2" t="s">
         <v>57</v>
       </c>
@@ -15057,46 +15035,44 @@
       <c r="V158" s="2"/>
     </row>
     <row r="159" spans="1:22">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="5" t="s">
         <v>1291</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2" t="s">
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="K159" s="2" t="s">
+      <c r="K159" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="L159" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M159" s="2" t="s">
+      <c r="L159" s="7"/>
+      <c r="M159" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N159" s="2" t="s">
+      <c r="N159" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O159" s="2"/>
-      <c r="P159" s="2"/>
-      <c r="Q159" s="2"/>
-      <c r="R159" s="2"/>
-      <c r="S159" s="2"/>
-      <c r="T159" s="2"/>
-      <c r="U159" s="2" t="s">
+      <c r="O159" s="5"/>
+      <c r="P159" s="5"/>
+      <c r="Q159" s="5"/>
+      <c r="R159" s="5"/>
+      <c r="S159" s="5"/>
+      <c r="T159" s="5"/>
+      <c r="U159" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="V159" s="2" t="s">
+      <c r="V159" s="5" t="s">
         <v>826</v>
       </c>
     </row>
@@ -15587,46 +15563,44 @@
       <c r="V168" s="2"/>
     </row>
     <row r="169" spans="1:22">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="5" t="s">
         <v>1301</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
-      <c r="J169" s="2" t="s">
+      <c r="C169" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="K169" s="2" t="s">
+      <c r="K169" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="L169" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M169" s="2" t="s">
+      <c r="L169" s="7"/>
+      <c r="M169" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N169" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O169" s="2"/>
-      <c r="P169" s="2"/>
-      <c r="Q169" s="2"/>
-      <c r="R169" s="2"/>
-      <c r="S169" s="2"/>
-      <c r="T169" s="2"/>
-      <c r="U169" s="2" t="s">
+      <c r="N169" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O169" s="5"/>
+      <c r="P169" s="5"/>
+      <c r="Q169" s="5"/>
+      <c r="R169" s="5"/>
+      <c r="S169" s="5"/>
+      <c r="T169" s="5"/>
+      <c r="U169" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="V169" s="2" t="s">
+      <c r="V169" s="5" t="s">
         <v>828</v>
       </c>
     </row>
@@ -15789,44 +15763,42 @@
       <c r="V172" s="2"/>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="5" t="s">
         <v>1305</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2" t="s">
+      <c r="C173" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K173" s="2"/>
-      <c r="L173" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M173" s="2" t="s">
+      <c r="K173" s="5"/>
+      <c r="L173" s="7"/>
+      <c r="M173" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N173" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
-      <c r="Q173" s="2"/>
-      <c r="R173" s="2"/>
-      <c r="S173" s="2"/>
-      <c r="T173" s="2"/>
-      <c r="U173" s="2" t="s">
+      <c r="N173" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O173" s="5"/>
+      <c r="P173" s="5"/>
+      <c r="Q173" s="5"/>
+      <c r="R173" s="5"/>
+      <c r="S173" s="5"/>
+      <c r="T173" s="5"/>
+      <c r="U173" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V173" s="2"/>
+      <c r="V173" s="5"/>
     </row>
     <row r="174" spans="1:22">
       <c r="A174" s="2" t="s">
@@ -16064,9 +16036,7 @@
         <v>690</v>
       </c>
       <c r="K178" s="2"/>
-      <c r="L178" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L178" s="7"/>
       <c r="M178" s="2" t="s">
         <v>60</v>
       </c>
@@ -16147,44 +16117,42 @@
       <c r="V179" s="2"/>
     </row>
     <row r="180" spans="1:22">
-      <c r="A180" s="2" t="s">
+      <c r="A180" s="5" t="s">
         <v>1312</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
-      <c r="I180" s="2"/>
-      <c r="J180" s="2" t="s">
+      <c r="C180" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K180" s="2"/>
-      <c r="L180" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M180" s="2" t="s">
+      <c r="K180" s="5"/>
+      <c r="L180" s="7"/>
+      <c r="M180" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N180" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O180" s="2"/>
-      <c r="P180" s="2"/>
-      <c r="Q180" s="2"/>
-      <c r="R180" s="2"/>
-      <c r="S180" s="2"/>
-      <c r="T180" s="2"/>
-      <c r="U180" s="2" t="s">
+      <c r="N180" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O180" s="5"/>
+      <c r="P180" s="5"/>
+      <c r="Q180" s="5"/>
+      <c r="R180" s="5"/>
+      <c r="S180" s="5"/>
+      <c r="T180" s="5"/>
+      <c r="U180" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V180" s="2"/>
+      <c r="V180" s="5"/>
     </row>
     <row r="181" spans="1:22">
       <c r="A181" s="2" t="s">
@@ -16291,46 +16259,44 @@
       <c r="V182" s="2"/>
     </row>
     <row r="183" spans="1:22">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="5" t="s">
         <v>1315</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
-      <c r="I183" s="2"/>
-      <c r="J183" s="2" t="s">
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="K183" s="2" t="s">
+      <c r="K183" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="L183" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M183" s="2" t="s">
+      <c r="L183" s="7"/>
+      <c r="M183" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N183" s="2" t="s">
+      <c r="N183" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O183" s="2"/>
-      <c r="P183" s="2"/>
-      <c r="Q183" s="2"/>
-      <c r="R183" s="2"/>
-      <c r="S183" s="2"/>
-      <c r="T183" s="2"/>
-      <c r="U183" s="2" t="s">
+      <c r="O183" s="5"/>
+      <c r="P183" s="5"/>
+      <c r="Q183" s="5"/>
+      <c r="R183" s="5"/>
+      <c r="S183" s="5"/>
+      <c r="T183" s="5"/>
+      <c r="U183" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="V183" s="2" t="s">
+      <c r="V183" s="5" t="s">
         <v>805</v>
       </c>
     </row>
@@ -16601,46 +16567,44 @@
       </c>
     </row>
     <row r="189" spans="1:22">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
-      <c r="I189" s="2"/>
-      <c r="J189" s="2" t="s">
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="K189" s="2" t="s">
+      <c r="K189" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="L189" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M189" s="2" t="s">
+      <c r="L189" s="7"/>
+      <c r="M189" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N189" s="2" t="s">
+      <c r="N189" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="O189" s="2"/>
-      <c r="P189" s="2"/>
-      <c r="Q189" s="2"/>
-      <c r="R189" s="2"/>
-      <c r="S189" s="2"/>
-      <c r="T189" s="2"/>
-      <c r="U189" s="2" t="s">
+      <c r="O189" s="5"/>
+      <c r="P189" s="5"/>
+      <c r="Q189" s="5"/>
+      <c r="R189" s="5"/>
+      <c r="S189" s="5"/>
+      <c r="T189" s="5"/>
+      <c r="U189" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="V189" s="2" t="s">
+      <c r="V189" s="5" t="s">
         <v>829</v>
       </c>
     </row>
@@ -16718,9 +16682,7 @@
         <v>690</v>
       </c>
       <c r="K191" s="2"/>
-      <c r="L191" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L191" s="7"/>
       <c r="M191" s="2" t="s">
         <v>64</v>
       </c>
@@ -16776,9 +16738,7 @@
       <c r="K192" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="L192" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L192" s="7"/>
       <c r="M192" s="2" t="s">
         <v>64</v>
       </c>
@@ -16950,9 +16910,7 @@
         <v>722</v>
       </c>
       <c r="K195" s="2"/>
-      <c r="L195" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L195" s="7"/>
       <c r="M195" s="2" t="s">
         <v>64</v>
       </c>
@@ -16979,46 +16937,44 @@
       <c r="V195" s="2"/>
     </row>
     <row r="196" spans="1:22">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="5" t="s">
         <v>1328</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
-      <c r="H196" s="2"/>
-      <c r="I196" s="2"/>
-      <c r="J196" s="2" t="s">
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="K196" s="2" t="s">
+      <c r="K196" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="L196" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M196" s="2" t="s">
+      <c r="L196" s="7"/>
+      <c r="M196" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N196" s="2" t="s">
+      <c r="N196" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="O196" s="2"/>
-      <c r="P196" s="2"/>
-      <c r="Q196" s="2"/>
-      <c r="R196" s="2"/>
-      <c r="S196" s="2"/>
-      <c r="T196" s="2"/>
-      <c r="U196" s="2" t="s">
+      <c r="O196" s="5"/>
+      <c r="P196" s="5"/>
+      <c r="Q196" s="5"/>
+      <c r="R196" s="5"/>
+      <c r="S196" s="5"/>
+      <c r="T196" s="5"/>
+      <c r="U196" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="V196" s="2" t="s">
+      <c r="V196" s="5" t="s">
         <v>832</v>
       </c>
     </row>
@@ -17243,44 +17199,42 @@
       <c r="V200" s="2"/>
     </row>
     <row r="201" spans="1:22">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="5" t="s">
         <v>1333</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
-      <c r="I201" s="2"/>
-      <c r="J201" s="2" t="s">
+      <c r="C201" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K201" s="2"/>
-      <c r="L201" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M201" s="2" t="s">
+      <c r="K201" s="5"/>
+      <c r="L201" s="7"/>
+      <c r="M201" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N201" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O201" s="2"/>
-      <c r="P201" s="2"/>
-      <c r="Q201" s="2"/>
-      <c r="R201" s="2"/>
-      <c r="S201" s="2"/>
-      <c r="T201" s="2"/>
-      <c r="U201" s="2" t="s">
+      <c r="N201" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O201" s="5"/>
+      <c r="P201" s="5"/>
+      <c r="Q201" s="5"/>
+      <c r="R201" s="5"/>
+      <c r="S201" s="5"/>
+      <c r="T201" s="5"/>
+      <c r="U201" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V201" s="2"/>
+      <c r="V201" s="5"/>
     </row>
     <row r="202" spans="1:22">
       <c r="A202" s="2" t="s">
@@ -17414,9 +17368,7 @@
         <v>690</v>
       </c>
       <c r="K204" s="2"/>
-      <c r="L204" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L204" s="7"/>
       <c r="M204" s="2" t="s">
         <v>66</v>
       </c>
@@ -17443,44 +17395,42 @@
       <c r="V204" s="2"/>
     </row>
     <row r="205" spans="1:22">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="5" t="s">
         <v>1337</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="2"/>
-      <c r="J205" s="2" t="s">
+      <c r="C205" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K205" s="2"/>
-      <c r="L205" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M205" s="2" t="s">
+      <c r="K205" s="5"/>
+      <c r="L205" s="7"/>
+      <c r="M205" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N205" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O205" s="2"/>
-      <c r="P205" s="2"/>
-      <c r="Q205" s="2"/>
-      <c r="R205" s="2"/>
-      <c r="S205" s="2"/>
-      <c r="T205" s="2"/>
-      <c r="U205" s="2" t="s">
+      <c r="N205" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O205" s="5"/>
+      <c r="P205" s="5"/>
+      <c r="Q205" s="5"/>
+      <c r="R205" s="5"/>
+      <c r="S205" s="5"/>
+      <c r="T205" s="5"/>
+      <c r="U205" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V205" s="2"/>
+      <c r="V205" s="5"/>
     </row>
     <row r="206" spans="1:22">
       <c r="A206" s="2" t="s">
@@ -17992,9 +17942,7 @@
         <v>690</v>
       </c>
       <c r="K215" s="2"/>
-      <c r="L215" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L215" s="7"/>
       <c r="M215" s="2" t="s">
         <v>53</v>
       </c>
@@ -18149,44 +18097,42 @@
       <c r="V218" s="9"/>
     </row>
     <row r="219" spans="1:22">
-      <c r="A219" s="2" t="s">
+      <c r="A219" s="5" t="s">
         <v>1351</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="2"/>
-      <c r="I219" s="2"/>
-      <c r="J219" s="2" t="s">
+      <c r="C219" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
+      <c r="J219" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K219" s="2"/>
-      <c r="L219" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M219" s="2" t="s">
+      <c r="K219" s="5"/>
+      <c r="L219" s="7"/>
+      <c r="M219" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N219" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O219" s="2"/>
-      <c r="P219" s="2"/>
-      <c r="Q219" s="2"/>
-      <c r="R219" s="2"/>
-      <c r="S219" s="2"/>
-      <c r="T219" s="2"/>
-      <c r="U219" s="2" t="s">
+      <c r="N219" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O219" s="5"/>
+      <c r="P219" s="5"/>
+      <c r="Q219" s="5"/>
+      <c r="R219" s="5"/>
+      <c r="S219" s="5"/>
+      <c r="T219" s="5"/>
+      <c r="U219" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V219" s="2"/>
+      <c r="V219" s="5"/>
     </row>
     <row r="220" spans="1:22">
       <c r="A220" s="2" t="s">
@@ -18347,44 +18293,42 @@
       <c r="V222" s="2"/>
     </row>
     <row r="223" spans="1:22">
-      <c r="A223" s="2" t="s">
+      <c r="A223" s="5" t="s">
         <v>1355</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
-      <c r="H223" s="2"/>
-      <c r="I223" s="2"/>
-      <c r="J223" s="2" t="s">
+      <c r="C223" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+      <c r="I223" s="5"/>
+      <c r="J223" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K223" s="2"/>
-      <c r="L223" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M223" s="2" t="s">
+      <c r="K223" s="5"/>
+      <c r="L223" s="7"/>
+      <c r="M223" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N223" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O223" s="2"/>
-      <c r="P223" s="2"/>
-      <c r="Q223" s="2"/>
-      <c r="R223" s="2"/>
-      <c r="S223" s="2"/>
-      <c r="T223" s="2"/>
-      <c r="U223" s="2" t="s">
+      <c r="N223" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O223" s="5"/>
+      <c r="P223" s="5"/>
+      <c r="Q223" s="5"/>
+      <c r="R223" s="5"/>
+      <c r="S223" s="5"/>
+      <c r="T223" s="5"/>
+      <c r="U223" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V223" s="2"/>
+      <c r="V223" s="5"/>
     </row>
     <row r="224" spans="1:22">
       <c r="A224" s="2" t="s">
@@ -18545,46 +18489,44 @@
       <c r="V226" s="2"/>
     </row>
     <row r="227" spans="1:22">
-      <c r="A227" s="2" t="s">
+      <c r="A227" s="5" t="s">
         <v>1359</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="2" t="s">
+      <c r="C227" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
+      <c r="I227" s="5"/>
+      <c r="J227" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="K227" s="2" t="s">
+      <c r="K227" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="L227" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M227" s="2" t="s">
+      <c r="L227" s="7"/>
+      <c r="M227" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N227" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O227" s="2"/>
-      <c r="P227" s="2"/>
-      <c r="Q227" s="2"/>
-      <c r="R227" s="2"/>
-      <c r="S227" s="2"/>
-      <c r="T227" s="2"/>
-      <c r="U227" s="2" t="s">
+      <c r="N227" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O227" s="5"/>
+      <c r="P227" s="5"/>
+      <c r="Q227" s="5"/>
+      <c r="R227" s="5"/>
+      <c r="S227" s="5"/>
+      <c r="T227" s="5"/>
+      <c r="U227" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="V227" s="2" t="s">
+      <c r="V227" s="5" t="s">
         <v>835</v>
       </c>
     </row>
@@ -18855,46 +18797,44 @@
       </c>
     </row>
     <row r="233" spans="1:22">
-      <c r="A233" s="2" t="s">
+      <c r="A233" s="5" t="s">
         <v>1365</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
-      <c r="I233" s="2"/>
-      <c r="J233" s="2" t="s">
+      <c r="C233" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
+      <c r="I233" s="5"/>
+      <c r="J233" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="K233" s="2" t="s">
+      <c r="K233" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="L233" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M233" s="2" t="s">
+      <c r="L233" s="7"/>
+      <c r="M233" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N233" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O233" s="2"/>
-      <c r="P233" s="2"/>
-      <c r="Q233" s="2"/>
-      <c r="R233" s="2"/>
-      <c r="S233" s="2"/>
-      <c r="T233" s="2"/>
-      <c r="U233" s="2" t="s">
+      <c r="N233" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O233" s="5"/>
+      <c r="P233" s="5"/>
+      <c r="Q233" s="5"/>
+      <c r="R233" s="5"/>
+      <c r="S233" s="5"/>
+      <c r="T233" s="5"/>
+      <c r="U233" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="V233" s="2" t="s">
+      <c r="V233" s="5" t="s">
         <v>836</v>
       </c>
     </row>
@@ -19161,44 +19101,42 @@
       <c r="V238" s="2"/>
     </row>
     <row r="239" spans="1:22">
-      <c r="A239" s="2" t="s">
+      <c r="A239" s="5" t="s">
         <v>1371</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
-      <c r="H239" s="2"/>
-      <c r="I239" s="2"/>
-      <c r="J239" s="2" t="s">
+      <c r="C239" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
+      <c r="I239" s="5"/>
+      <c r="J239" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K239" s="2"/>
-      <c r="L239" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M239" s="2" t="s">
+      <c r="K239" s="5"/>
+      <c r="L239" s="7"/>
+      <c r="M239" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="N239" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O239" s="2"/>
-      <c r="P239" s="2"/>
-      <c r="Q239" s="2"/>
-      <c r="R239" s="2"/>
-      <c r="S239" s="2"/>
-      <c r="T239" s="2"/>
-      <c r="U239" s="2" t="s">
+      <c r="N239" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O239" s="5"/>
+      <c r="P239" s="5"/>
+      <c r="Q239" s="5"/>
+      <c r="R239" s="5"/>
+      <c r="S239" s="5"/>
+      <c r="T239" s="5"/>
+      <c r="U239" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V239" s="2"/>
+      <c r="V239" s="5"/>
     </row>
     <row r="240" spans="1:22">
       <c r="A240" s="2" t="s">
@@ -19436,9 +19374,7 @@
         <v>690</v>
       </c>
       <c r="K244" s="2"/>
-      <c r="L244" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L244" s="7"/>
       <c r="M244" s="2" t="s">
         <v>72</v>
       </c>
@@ -19492,9 +19428,7 @@
         <v>690</v>
       </c>
       <c r="K245" s="2"/>
-      <c r="L245" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L245" s="7"/>
       <c r="M245" s="2" t="s">
         <v>72</v>
       </c>
@@ -19548,9 +19482,7 @@
         <v>690</v>
       </c>
       <c r="K246" s="2"/>
-      <c r="L246" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L246" s="7"/>
       <c r="M246" s="2" t="s">
         <v>72</v>
       </c>
@@ -19712,9 +19644,7 @@
         <v>730</v>
       </c>
       <c r="K249" s="2"/>
-      <c r="L249" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L249" s="7"/>
       <c r="M249" s="2" t="s">
         <v>73</v>
       </c>
@@ -19770,9 +19700,7 @@
       <c r="K250" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="L250" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L250" s="7"/>
       <c r="M250" s="2" t="s">
         <v>73</v>
       </c>
@@ -19801,44 +19729,42 @@
       </c>
     </row>
     <row r="251" spans="1:22">
-      <c r="A251" s="2" t="s">
+      <c r="A251" s="5" t="s">
         <v>1383</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="2"/>
-      <c r="H251" s="2"/>
-      <c r="I251" s="2"/>
-      <c r="J251" s="2" t="s">
+      <c r="C251" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
+      <c r="I251" s="5"/>
+      <c r="J251" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K251" s="2"/>
-      <c r="L251" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M251" s="2" t="s">
+      <c r="K251" s="5"/>
+      <c r="L251" s="7"/>
+      <c r="M251" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N251" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O251" s="2"/>
-      <c r="P251" s="2"/>
-      <c r="Q251" s="2"/>
-      <c r="R251" s="2"/>
-      <c r="S251" s="2"/>
-      <c r="T251" s="2"/>
-      <c r="U251" s="2" t="s">
+      <c r="N251" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O251" s="5"/>
+      <c r="P251" s="5"/>
+      <c r="Q251" s="5"/>
+      <c r="R251" s="5"/>
+      <c r="S251" s="5"/>
+      <c r="T251" s="5"/>
+      <c r="U251" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V251" s="2"/>
+      <c r="V251" s="5"/>
     </row>
     <row r="252" spans="1:22">
       <c r="A252" s="2" t="s">
@@ -20076,9 +20002,7 @@
         <v>690</v>
       </c>
       <c r="K256" s="2"/>
-      <c r="L256" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L256" s="7"/>
       <c r="M256" s="2" t="s">
         <v>74</v>
       </c>
@@ -20132,9 +20056,7 @@
         <v>690</v>
       </c>
       <c r="K257" s="2"/>
-      <c r="L257" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L257" s="7"/>
       <c r="M257" s="2" t="s">
         <v>74</v>
       </c>
@@ -20161,44 +20083,42 @@
       <c r="V257" s="2"/>
     </row>
     <row r="258" spans="1:22">
-      <c r="A258" s="2" t="s">
+      <c r="A258" s="5" t="s">
         <v>1390</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C258" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D258" s="2"/>
-      <c r="E258" s="2"/>
-      <c r="F258" s="2"/>
-      <c r="G258" s="2"/>
-      <c r="H258" s="2"/>
-      <c r="I258" s="2"/>
-      <c r="J258" s="2" t="s">
+      <c r="C258" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="5"/>
+      <c r="J258" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K258" s="2"/>
-      <c r="L258" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M258" s="2" t="s">
+      <c r="K258" s="5"/>
+      <c r="L258" s="7"/>
+      <c r="M258" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N258" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O258" s="2"/>
-      <c r="P258" s="2"/>
-      <c r="Q258" s="2"/>
-      <c r="R258" s="2"/>
-      <c r="S258" s="2"/>
-      <c r="T258" s="2"/>
-      <c r="U258" s="2" t="s">
+      <c r="N258" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O258" s="5"/>
+      <c r="P258" s="5"/>
+      <c r="Q258" s="5"/>
+      <c r="R258" s="5"/>
+      <c r="S258" s="5"/>
+      <c r="T258" s="5"/>
+      <c r="U258" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V258" s="2"/>
+      <c r="V258" s="5"/>
     </row>
     <row r="259" spans="1:22">
       <c r="A259" s="2" t="s">
@@ -20390,9 +20310,7 @@
         <v>690</v>
       </c>
       <c r="K262" s="2"/>
-      <c r="L262" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L262" s="7"/>
       <c r="M262" s="2" t="s">
         <v>75</v>
       </c>
@@ -20419,44 +20337,42 @@
       <c r="V262" s="2"/>
     </row>
     <row r="263" spans="1:22">
-      <c r="A263" s="2" t="s">
+      <c r="A263" s="5" t="s">
         <v>1395</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C263" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-      <c r="H263" s="2"/>
-      <c r="I263" s="2"/>
-      <c r="J263" s="2" t="s">
+      <c r="C263" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
+      <c r="I263" s="5"/>
+      <c r="J263" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K263" s="2"/>
-      <c r="L263" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M263" s="2" t="s">
+      <c r="K263" s="5"/>
+      <c r="L263" s="7"/>
+      <c r="M263" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N263" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O263" s="2"/>
-      <c r="P263" s="2"/>
-      <c r="Q263" s="2"/>
-      <c r="R263" s="2"/>
-      <c r="S263" s="2"/>
-      <c r="T263" s="2"/>
-      <c r="U263" s="2" t="s">
+      <c r="N263" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O263" s="5"/>
+      <c r="P263" s="5"/>
+      <c r="Q263" s="5"/>
+      <c r="R263" s="5"/>
+      <c r="S263" s="5"/>
+      <c r="T263" s="5"/>
+      <c r="U263" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V263" s="2"/>
+      <c r="V263" s="5"/>
     </row>
     <row r="264" spans="1:22">
       <c r="A264" s="2" t="s">
@@ -20590,9 +20506,7 @@
         <v>690</v>
       </c>
       <c r="K266" s="2"/>
-      <c r="L266" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L266" s="7"/>
       <c r="M266" s="2" t="s">
         <v>76</v>
       </c>
@@ -20754,9 +20668,7 @@
         <v>734</v>
       </c>
       <c r="K269" s="2"/>
-      <c r="L269" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L269" s="7"/>
       <c r="M269" s="2" t="s">
         <v>77</v>
       </c>
@@ -20783,46 +20695,44 @@
       <c r="V269" s="2"/>
     </row>
     <row r="270" spans="1:22">
-      <c r="A270" s="2" t="s">
+      <c r="A270" s="5" t="s">
         <v>1401</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B270" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
-      <c r="G270" s="2"/>
-      <c r="H270" s="2"/>
-      <c r="I270" s="2"/>
-      <c r="J270" s="2" t="s">
+      <c r="C270" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D270" s="5"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="5"/>
+      <c r="H270" s="5"/>
+      <c r="I270" s="5"/>
+      <c r="J270" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="K270" s="2" t="s">
+      <c r="K270" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="L270" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M270" s="2" t="s">
+      <c r="L270" s="7"/>
+      <c r="M270" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N270" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O270" s="2"/>
-      <c r="P270" s="2"/>
-      <c r="Q270" s="2"/>
-      <c r="R270" s="2"/>
-      <c r="S270" s="2"/>
-      <c r="T270" s="2"/>
-      <c r="U270" s="2" t="s">
+      <c r="N270" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O270" s="5"/>
+      <c r="P270" s="5"/>
+      <c r="Q270" s="5"/>
+      <c r="R270" s="5"/>
+      <c r="S270" s="5"/>
+      <c r="T270" s="5"/>
+      <c r="U270" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="V270" s="2" t="s">
+      <c r="V270" s="5" t="s">
         <v>840</v>
       </c>
     </row>
@@ -21062,9 +20972,7 @@
         <v>690</v>
       </c>
       <c r="K275" s="2"/>
-      <c r="L275" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L275" s="7"/>
       <c r="M275" s="2" t="s">
         <v>78</v>
       </c>
@@ -21226,9 +21134,7 @@
         <v>693</v>
       </c>
       <c r="K278" s="2"/>
-      <c r="L278" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L278" s="7"/>
       <c r="M278" s="2" t="s">
         <v>79</v>
       </c>
@@ -21282,9 +21188,7 @@
         <v>693</v>
       </c>
       <c r="K279" s="2"/>
-      <c r="L279" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L279" s="7"/>
       <c r="M279" s="2" t="s">
         <v>79</v>
       </c>
@@ -21338,9 +21242,7 @@
         <v>693</v>
       </c>
       <c r="K280" s="2"/>
-      <c r="L280" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L280" s="7"/>
       <c r="M280" s="2" t="s">
         <v>79</v>
       </c>
@@ -21679,44 +21581,42 @@
       <c r="V288" s="9"/>
     </row>
     <row r="289" spans="1:22">
-      <c r="A289" s="2" t="s">
+      <c r="A289" s="5" t="s">
         <v>1420</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="B289" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C289" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D289" s="2"/>
-      <c r="E289" s="2"/>
-      <c r="F289" s="2"/>
-      <c r="G289" s="2"/>
-      <c r="H289" s="2"/>
-      <c r="I289" s="2"/>
-      <c r="J289" s="2" t="s">
+      <c r="C289" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D289" s="5"/>
+      <c r="E289" s="5"/>
+      <c r="F289" s="5"/>
+      <c r="G289" s="5"/>
+      <c r="H289" s="5"/>
+      <c r="I289" s="5"/>
+      <c r="J289" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K289" s="2"/>
-      <c r="L289" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M289" s="2" t="s">
+      <c r="K289" s="5"/>
+      <c r="L289" s="7"/>
+      <c r="M289" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N289" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O289" s="2"/>
-      <c r="P289" s="2"/>
-      <c r="Q289" s="2"/>
-      <c r="R289" s="2"/>
-      <c r="S289" s="2"/>
-      <c r="T289" s="2"/>
-      <c r="U289" s="2" t="s">
+      <c r="N289" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O289" s="5"/>
+      <c r="P289" s="5"/>
+      <c r="Q289" s="5"/>
+      <c r="R289" s="5"/>
+      <c r="S289" s="5"/>
+      <c r="T289" s="5"/>
+      <c r="U289" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V289" s="2"/>
+      <c r="V289" s="5"/>
     </row>
     <row r="290" spans="1:22">
       <c r="A290" s="2" t="s">
@@ -22012,9 +21912,7 @@
         <v>690</v>
       </c>
       <c r="K295" s="2"/>
-      <c r="L295" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L295" s="7"/>
       <c r="M295" s="2" t="s">
         <v>82</v>
       </c>
@@ -22236,9 +22134,7 @@
       <c r="K299" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="L299" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L299" s="7"/>
       <c r="M299" s="2" t="s">
         <v>83</v>
       </c>
@@ -22456,9 +22352,7 @@
         <v>690</v>
       </c>
       <c r="K303" s="2"/>
-      <c r="L303" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L303" s="7"/>
       <c r="M303" s="2" t="s">
         <v>84</v>
       </c>
@@ -22674,9 +22568,7 @@
         <v>690</v>
       </c>
       <c r="K307" s="2"/>
-      <c r="L307" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L307" s="7"/>
       <c r="M307" s="2" t="s">
         <v>85</v>
       </c>
@@ -22934,9 +22826,7 @@
         <v>690</v>
       </c>
       <c r="K312" s="2"/>
-      <c r="L312" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L312" s="7"/>
       <c r="M312" s="2" t="s">
         <v>86</v>
       </c>
@@ -22963,44 +22853,42 @@
       <c r="V312" s="2"/>
     </row>
     <row r="313" spans="1:22">
-      <c r="A313" s="2" t="s">
+      <c r="A313" s="5" t="s">
         <v>1442</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="B313" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C313" s="2" t="s">
+      <c r="C313" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D313" s="2"/>
-      <c r="E313" s="2"/>
-      <c r="F313" s="2"/>
-      <c r="G313" s="2"/>
-      <c r="H313" s="2"/>
-      <c r="I313" s="2"/>
-      <c r="J313" s="2" t="s">
+      <c r="D313" s="5"/>
+      <c r="E313" s="5"/>
+      <c r="F313" s="5"/>
+      <c r="G313" s="5"/>
+      <c r="H313" s="5"/>
+      <c r="I313" s="5"/>
+      <c r="J313" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K313" s="2"/>
-      <c r="L313" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M313" s="2" t="s">
+      <c r="K313" s="5"/>
+      <c r="L313" s="7"/>
+      <c r="M313" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="N313" s="2" t="s">
+      <c r="N313" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O313" s="2"/>
-      <c r="P313" s="2"/>
-      <c r="Q313" s="2"/>
-      <c r="R313" s="2"/>
-      <c r="S313" s="2"/>
-      <c r="T313" s="2"/>
-      <c r="U313" s="2" t="s">
+      <c r="O313" s="5"/>
+      <c r="P313" s="5"/>
+      <c r="Q313" s="5"/>
+      <c r="R313" s="5"/>
+      <c r="S313" s="5"/>
+      <c r="T313" s="5"/>
+      <c r="U313" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V313" s="2"/>
+      <c r="V313" s="5"/>
     </row>
     <row r="314" spans="1:22">
       <c r="A314" s="2" t="s">
@@ -23356,9 +23244,7 @@
       <c r="K320" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="L320" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L320" s="7"/>
       <c r="M320" s="2" t="s">
         <v>88</v>
       </c>
@@ -23651,44 +23537,42 @@
       <c r="V325" s="2"/>
     </row>
     <row r="326" spans="1:22">
-      <c r="A326" s="2" t="s">
+      <c r="A326" s="5" t="s">
         <v>1455</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B326" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C326" s="2" t="s">
+      <c r="C326" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D326" s="2"/>
-      <c r="E326" s="2"/>
-      <c r="F326" s="2"/>
-      <c r="G326" s="2"/>
-      <c r="H326" s="2"/>
-      <c r="I326" s="2"/>
-      <c r="J326" s="2" t="s">
+      <c r="D326" s="5"/>
+      <c r="E326" s="5"/>
+      <c r="F326" s="5"/>
+      <c r="G326" s="5"/>
+      <c r="H326" s="5"/>
+      <c r="I326" s="5"/>
+      <c r="J326" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K326" s="2"/>
-      <c r="L326" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M326" s="2" t="s">
+      <c r="K326" s="5"/>
+      <c r="L326" s="7"/>
+      <c r="M326" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="N326" s="2" t="s">
+      <c r="N326" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="O326" s="2"/>
-      <c r="P326" s="2"/>
-      <c r="Q326" s="2"/>
-      <c r="R326" s="2"/>
-      <c r="S326" s="2"/>
-      <c r="T326" s="2"/>
-      <c r="U326" s="2" t="s">
+      <c r="O326" s="5"/>
+      <c r="P326" s="5"/>
+      <c r="Q326" s="5"/>
+      <c r="R326" s="5"/>
+      <c r="S326" s="5"/>
+      <c r="T326" s="5"/>
+      <c r="U326" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V326" s="2"/>
+      <c r="V326" s="5"/>
     </row>
     <row r="327" spans="1:22">
       <c r="A327" s="2" t="s">
@@ -23911,44 +23795,42 @@
       <c r="V330" s="2"/>
     </row>
     <row r="331" spans="1:22">
-      <c r="A331" s="2" t="s">
+      <c r="A331" s="5" t="s">
         <v>1460</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B331" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C331" s="2" t="s">
+      <c r="C331" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D331" s="2"/>
-      <c r="E331" s="2"/>
-      <c r="F331" s="2"/>
-      <c r="G331" s="2"/>
-      <c r="H331" s="2"/>
-      <c r="I331" s="2"/>
-      <c r="J331" s="2" t="s">
+      <c r="D331" s="5"/>
+      <c r="E331" s="5"/>
+      <c r="F331" s="5"/>
+      <c r="G331" s="5"/>
+      <c r="H331" s="5"/>
+      <c r="I331" s="5"/>
+      <c r="J331" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K331" s="2"/>
-      <c r="L331" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M331" s="2" t="s">
+      <c r="K331" s="5"/>
+      <c r="L331" s="7"/>
+      <c r="M331" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N331" s="2" t="s">
+      <c r="N331" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="O331" s="2"/>
-      <c r="P331" s="2"/>
-      <c r="Q331" s="2"/>
-      <c r="R331" s="2"/>
-      <c r="S331" s="2"/>
-      <c r="T331" s="2"/>
-      <c r="U331" s="2" t="s">
+      <c r="O331" s="5"/>
+      <c r="P331" s="5"/>
+      <c r="Q331" s="5"/>
+      <c r="R331" s="5"/>
+      <c r="S331" s="5"/>
+      <c r="T331" s="5"/>
+      <c r="U331" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V331" s="2"/>
+      <c r="V331" s="5"/>
     </row>
     <row r="332" spans="1:22">
       <c r="A332" s="2" t="s">
@@ -24082,9 +23964,7 @@
         <v>690</v>
       </c>
       <c r="K334" s="2"/>
-      <c r="L334" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L334" s="7"/>
       <c r="M334" s="2" t="s">
         <v>91</v>
       </c>
@@ -24138,9 +24018,7 @@
         <v>690</v>
       </c>
       <c r="K335" s="2"/>
-      <c r="L335" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L335" s="7"/>
       <c r="M335" s="2" t="s">
         <v>91</v>
       </c>
@@ -24283,46 +24161,44 @@
       <c r="V337" s="2"/>
     </row>
     <row r="338" spans="1:22">
-      <c r="A338" s="2" t="s">
+      <c r="A338" s="5" t="s">
         <v>1467</v>
       </c>
-      <c r="B338" s="2" t="s">
+      <c r="B338" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C338" s="2" t="s">
+      <c r="C338" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D338" s="2"/>
-      <c r="E338" s="2"/>
-      <c r="F338" s="2"/>
-      <c r="G338" s="2"/>
-      <c r="H338" s="2"/>
-      <c r="I338" s="2"/>
-      <c r="J338" s="2" t="s">
+      <c r="D338" s="5"/>
+      <c r="E338" s="5"/>
+      <c r="F338" s="5"/>
+      <c r="G338" s="5"/>
+      <c r="H338" s="5"/>
+      <c r="I338" s="5"/>
+      <c r="J338" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="K338" s="2" t="s">
+      <c r="K338" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="L338" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M338" s="2" t="s">
+      <c r="L338" s="7"/>
+      <c r="M338" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="N338" s="2" t="s">
+      <c r="N338" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="O338" s="2"/>
-      <c r="P338" s="2"/>
-      <c r="Q338" s="2"/>
-      <c r="R338" s="2"/>
-      <c r="S338" s="2"/>
-      <c r="T338" s="2"/>
-      <c r="U338" s="2" t="s">
+      <c r="O338" s="5"/>
+      <c r="P338" s="5"/>
+      <c r="Q338" s="5"/>
+      <c r="R338" s="5"/>
+      <c r="S338" s="5"/>
+      <c r="T338" s="5"/>
+      <c r="U338" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="V338" s="2" t="s">
+      <c r="V338" s="5" t="s">
         <v>851</v>
       </c>
     </row>
@@ -24485,46 +24361,44 @@
       <c r="V341" s="2"/>
     </row>
     <row r="342" spans="1:22">
-      <c r="A342" s="2" t="s">
+      <c r="A342" s="5" t="s">
         <v>1471</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="B342" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C342" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D342" s="2"/>
-      <c r="E342" s="2"/>
-      <c r="F342" s="2"/>
-      <c r="G342" s="2"/>
-      <c r="H342" s="2"/>
-      <c r="I342" s="2"/>
-      <c r="J342" s="2" t="s">
+      <c r="C342" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D342" s="5"/>
+      <c r="E342" s="5"/>
+      <c r="F342" s="5"/>
+      <c r="G342" s="5"/>
+      <c r="H342" s="5"/>
+      <c r="I342" s="5"/>
+      <c r="J342" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="K342" s="2" t="s">
+      <c r="K342" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="L342" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M342" s="2" t="s">
+      <c r="L342" s="7"/>
+      <c r="M342" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="N342" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O342" s="2"/>
-      <c r="P342" s="2"/>
-      <c r="Q342" s="2"/>
-      <c r="R342" s="2"/>
-      <c r="S342" s="2"/>
-      <c r="T342" s="2"/>
-      <c r="U342" s="2" t="s">
+      <c r="N342" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O342" s="5"/>
+      <c r="P342" s="5"/>
+      <c r="Q342" s="5"/>
+      <c r="R342" s="5"/>
+      <c r="S342" s="5"/>
+      <c r="T342" s="5"/>
+      <c r="U342" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="V342" s="2" t="s">
+      <c r="V342" s="5" t="s">
         <v>851</v>
       </c>
     </row>
@@ -25069,46 +24943,44 @@
       <c r="V354" s="9"/>
     </row>
     <row r="355" spans="1:22">
-      <c r="A355" s="2" t="s">
+      <c r="A355" s="5" t="s">
         <v>1484</v>
       </c>
-      <c r="B355" s="2" t="s">
+      <c r="B355" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C355" s="2" t="s">
+      <c r="C355" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D355" s="2"/>
-      <c r="E355" s="2"/>
-      <c r="F355" s="2"/>
-      <c r="G355" s="2"/>
-      <c r="H355" s="2"/>
-      <c r="I355" s="2"/>
-      <c r="J355" s="2" t="s">
+      <c r="D355" s="5"/>
+      <c r="E355" s="5"/>
+      <c r="F355" s="5"/>
+      <c r="G355" s="5"/>
+      <c r="H355" s="5"/>
+      <c r="I355" s="5"/>
+      <c r="J355" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K355" s="2" t="s">
+      <c r="K355" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="L355" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M355" s="2" t="s">
+      <c r="L355" s="7"/>
+      <c r="M355" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="N355" s="2" t="s">
+      <c r="N355" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O355" s="2"/>
-      <c r="P355" s="2"/>
-      <c r="Q355" s="2"/>
-      <c r="R355" s="2"/>
-      <c r="S355" s="2"/>
-      <c r="T355" s="2"/>
-      <c r="U355" s="2" t="s">
+      <c r="O355" s="5"/>
+      <c r="P355" s="5"/>
+      <c r="Q355" s="5"/>
+      <c r="R355" s="5"/>
+      <c r="S355" s="5"/>
+      <c r="T355" s="5"/>
+      <c r="U355" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V355" s="2" t="s">
+      <c r="V355" s="5" t="s">
         <v>853</v>
       </c>
     </row>
@@ -25599,46 +25471,44 @@
       <c r="V364" s="2"/>
     </row>
     <row r="365" spans="1:22">
-      <c r="A365" s="2" t="s">
+      <c r="A365" s="5" t="s">
         <v>1494</v>
       </c>
-      <c r="B365" s="2" t="s">
+      <c r="B365" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C365" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D365" s="2"/>
-      <c r="E365" s="2"/>
-      <c r="F365" s="2"/>
-      <c r="G365" s="2"/>
-      <c r="H365" s="2"/>
-      <c r="I365" s="2"/>
-      <c r="J365" s="2" t="s">
+      <c r="C365" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D365" s="5"/>
+      <c r="E365" s="5"/>
+      <c r="F365" s="5"/>
+      <c r="G365" s="5"/>
+      <c r="H365" s="5"/>
+      <c r="I365" s="5"/>
+      <c r="J365" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="K365" s="2" t="s">
+      <c r="K365" s="5" t="s">
         <v>855</v>
       </c>
-      <c r="L365" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M365" s="2" t="s">
+      <c r="L365" s="7"/>
+      <c r="M365" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="N365" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O365" s="2"/>
-      <c r="P365" s="2"/>
-      <c r="Q365" s="2"/>
-      <c r="R365" s="2"/>
-      <c r="S365" s="2"/>
-      <c r="T365" s="2"/>
-      <c r="U365" s="2" t="s">
+      <c r="N365" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O365" s="5"/>
+      <c r="P365" s="5"/>
+      <c r="Q365" s="5"/>
+      <c r="R365" s="5"/>
+      <c r="S365" s="5"/>
+      <c r="T365" s="5"/>
+      <c r="U365" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="V365" s="2" t="s">
+      <c r="V365" s="5" t="s">
         <v>855</v>
       </c>
     </row>
@@ -25878,9 +25748,7 @@
         <v>690</v>
       </c>
       <c r="K370" s="2"/>
-      <c r="L370" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L370" s="7"/>
       <c r="M370" s="2" t="s">
         <v>96</v>
       </c>
@@ -25934,9 +25802,7 @@
         <v>690</v>
       </c>
       <c r="K371" s="2"/>
-      <c r="L371" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L371" s="7"/>
       <c r="M371" s="2" t="s">
         <v>96</v>
       </c>
@@ -25990,9 +25856,7 @@
         <v>690</v>
       </c>
       <c r="K372" s="2"/>
-      <c r="L372" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L372" s="7"/>
       <c r="M372" s="2" t="s">
         <v>96</v>
       </c>
@@ -26019,46 +25883,44 @@
       <c r="V372" s="2"/>
     </row>
     <row r="373" spans="1:22">
-      <c r="A373" s="2" t="s">
+      <c r="A373" s="5" t="s">
         <v>1502</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C373" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D373" s="2"/>
-      <c r="E373" s="2"/>
-      <c r="F373" s="2"/>
-      <c r="G373" s="2"/>
-      <c r="H373" s="2"/>
-      <c r="I373" s="2"/>
-      <c r="J373" s="2" t="s">
+      <c r="C373" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D373" s="5"/>
+      <c r="E373" s="5"/>
+      <c r="F373" s="5"/>
+      <c r="G373" s="5"/>
+      <c r="H373" s="5"/>
+      <c r="I373" s="5"/>
+      <c r="J373" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="K373" s="2" t="s">
+      <c r="K373" s="5" t="s">
         <v>856</v>
       </c>
-      <c r="L373" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M373" s="2" t="s">
+      <c r="L373" s="7"/>
+      <c r="M373" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="N373" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O373" s="2"/>
-      <c r="P373" s="2"/>
-      <c r="Q373" s="2"/>
-      <c r="R373" s="2"/>
-      <c r="S373" s="2"/>
-      <c r="T373" s="2"/>
-      <c r="U373" s="2" t="s">
+      <c r="N373" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O373" s="5"/>
+      <c r="P373" s="5"/>
+      <c r="Q373" s="5"/>
+      <c r="R373" s="5"/>
+      <c r="S373" s="5"/>
+      <c r="T373" s="5"/>
+      <c r="U373" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="V373" s="2" t="s">
+      <c r="V373" s="5" t="s">
         <v>856</v>
       </c>
     </row>
@@ -26535,44 +26397,42 @@
       <c r="V384" s="9"/>
     </row>
     <row r="385" spans="1:22">
-      <c r="A385" s="2" t="s">
+      <c r="A385" s="5" t="s">
         <v>1514</v>
       </c>
-      <c r="B385" s="2" t="s">
+      <c r="B385" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C385" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D385" s="2"/>
-      <c r="E385" s="2"/>
-      <c r="F385" s="2"/>
-      <c r="G385" s="2"/>
-      <c r="H385" s="2"/>
-      <c r="I385" s="2"/>
-      <c r="J385" s="2" t="s">
+      <c r="C385" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D385" s="5"/>
+      <c r="E385" s="5"/>
+      <c r="F385" s="5"/>
+      <c r="G385" s="5"/>
+      <c r="H385" s="5"/>
+      <c r="I385" s="5"/>
+      <c r="J385" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K385" s="2"/>
-      <c r="L385" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M385" s="2" t="s">
+      <c r="K385" s="5"/>
+      <c r="L385" s="7"/>
+      <c r="M385" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="N385" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O385" s="2"/>
-      <c r="P385" s="2"/>
-      <c r="Q385" s="2"/>
-      <c r="R385" s="2"/>
-      <c r="S385" s="2"/>
-      <c r="T385" s="2"/>
-      <c r="U385" s="2" t="s">
+      <c r="N385" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O385" s="5"/>
+      <c r="P385" s="5"/>
+      <c r="Q385" s="5"/>
+      <c r="R385" s="5"/>
+      <c r="S385" s="5"/>
+      <c r="T385" s="5"/>
+      <c r="U385" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V385" s="2"/>
+      <c r="V385" s="5"/>
     </row>
     <row r="386" spans="1:22">
       <c r="A386" s="2" t="s">
@@ -26810,9 +26670,7 @@
         <v>753</v>
       </c>
       <c r="K390" s="2"/>
-      <c r="L390" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L390" s="7"/>
       <c r="M390" s="2" t="s">
         <v>57</v>
       </c>
@@ -26866,9 +26724,7 @@
         <v>754</v>
       </c>
       <c r="K391" s="2"/>
-      <c r="L391" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L391" s="7"/>
       <c r="M391" s="2" t="s">
         <v>57</v>
       </c>
@@ -26922,9 +26778,7 @@
         <v>755</v>
       </c>
       <c r="K392" s="2"/>
-      <c r="L392" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L392" s="7"/>
       <c r="M392" s="2" t="s">
         <v>57</v>
       </c>
@@ -26978,9 +26832,7 @@
         <v>756</v>
       </c>
       <c r="K393" s="2"/>
-      <c r="L393" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L393" s="7"/>
       <c r="M393" s="2" t="s">
         <v>57</v>
       </c>
@@ -27007,46 +26859,44 @@
       <c r="V393" s="2"/>
     </row>
     <row r="394" spans="1:22">
-      <c r="A394" s="2" t="s">
+      <c r="A394" s="5" t="s">
         <v>1523</v>
       </c>
-      <c r="B394" s="2" t="s">
+      <c r="B394" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C394" s="2" t="s">
+      <c r="C394" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D394" s="2"/>
-      <c r="E394" s="2"/>
-      <c r="F394" s="2"/>
-      <c r="G394" s="2"/>
-      <c r="H394" s="2"/>
-      <c r="I394" s="2"/>
-      <c r="J394" s="2" t="s">
+      <c r="D394" s="5"/>
+      <c r="E394" s="5"/>
+      <c r="F394" s="5"/>
+      <c r="G394" s="5"/>
+      <c r="H394" s="5"/>
+      <c r="I394" s="5"/>
+      <c r="J394" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="K394" s="2" t="s">
+      <c r="K394" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="L394" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M394" s="2" t="s">
+      <c r="L394" s="7"/>
+      <c r="M394" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="N394" s="2" t="s">
+      <c r="N394" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O394" s="2"/>
-      <c r="P394" s="2"/>
-      <c r="Q394" s="2"/>
-      <c r="R394" s="2"/>
-      <c r="S394" s="2"/>
-      <c r="T394" s="2"/>
-      <c r="U394" s="2" t="s">
+      <c r="O394" s="5"/>
+      <c r="P394" s="5"/>
+      <c r="Q394" s="5"/>
+      <c r="R394" s="5"/>
+      <c r="S394" s="5"/>
+      <c r="T394" s="5"/>
+      <c r="U394" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="V394" s="2" t="s">
+      <c r="V394" s="5" t="s">
         <v>837</v>
       </c>
     </row>
@@ -27533,44 +27383,42 @@
       <c r="V403" s="2"/>
     </row>
     <row r="404" spans="1:22">
-      <c r="A404" s="2" t="s">
+      <c r="A404" s="5" t="s">
         <v>1533</v>
       </c>
-      <c r="B404" s="2" t="s">
+      <c r="B404" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C404" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D404" s="2"/>
-      <c r="E404" s="2"/>
-      <c r="F404" s="2"/>
-      <c r="G404" s="2"/>
-      <c r="H404" s="2"/>
-      <c r="I404" s="2"/>
-      <c r="J404" s="2" t="s">
+      <c r="C404" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D404" s="5"/>
+      <c r="E404" s="5"/>
+      <c r="F404" s="5"/>
+      <c r="G404" s="5"/>
+      <c r="H404" s="5"/>
+      <c r="I404" s="5"/>
+      <c r="J404" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K404" s="2"/>
-      <c r="L404" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M404" s="2" t="s">
+      <c r="K404" s="5"/>
+      <c r="L404" s="7"/>
+      <c r="M404" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N404" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O404" s="2"/>
-      <c r="P404" s="2"/>
-      <c r="Q404" s="2"/>
-      <c r="R404" s="2"/>
-      <c r="S404" s="2"/>
-      <c r="T404" s="2"/>
-      <c r="U404" s="2" t="s">
+      <c r="N404" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O404" s="5"/>
+      <c r="P404" s="5"/>
+      <c r="Q404" s="5"/>
+      <c r="R404" s="5"/>
+      <c r="S404" s="5"/>
+      <c r="T404" s="5"/>
+      <c r="U404" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V404" s="2"/>
+      <c r="V404" s="5"/>
     </row>
     <row r="405" spans="1:22">
       <c r="A405" s="2" t="s">
@@ -33705,44 +33553,42 @@
       <c r="V552" s="9"/>
     </row>
     <row r="553" spans="1:22">
-      <c r="A553" s="2" t="s">
+      <c r="A553" s="5" t="s">
         <v>1682</v>
       </c>
-      <c r="B553" s="2" t="s">
+      <c r="B553" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C553" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D553" s="2"/>
-      <c r="E553" s="2"/>
-      <c r="F553" s="2"/>
-      <c r="G553" s="2"/>
-      <c r="H553" s="2"/>
-      <c r="I553" s="2"/>
-      <c r="J553" s="2" t="s">
+      <c r="C553" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D553" s="5"/>
+      <c r="E553" s="5"/>
+      <c r="F553" s="5"/>
+      <c r="G553" s="5"/>
+      <c r="H553" s="5"/>
+      <c r="I553" s="5"/>
+      <c r="J553" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K553" s="2"/>
-      <c r="L553" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M553" s="2" t="s">
+      <c r="K553" s="5"/>
+      <c r="L553" s="7"/>
+      <c r="M553" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N553" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O553" s="2"/>
-      <c r="P553" s="2"/>
-      <c r="Q553" s="2"/>
-      <c r="R553" s="2"/>
-      <c r="S553" s="2"/>
-      <c r="T553" s="2"/>
-      <c r="U553" s="2" t="s">
+      <c r="N553" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O553" s="5"/>
+      <c r="P553" s="5"/>
+      <c r="Q553" s="5"/>
+      <c r="R553" s="5"/>
+      <c r="S553" s="5"/>
+      <c r="T553" s="5"/>
+      <c r="U553" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V553" s="2"/>
+      <c r="V553" s="5"/>
     </row>
     <row r="554" spans="1:22">
       <c r="A554" s="2" t="s">
@@ -38653,44 +38499,42 @@
       <c r="V675" s="9"/>
     </row>
     <row r="676" spans="1:22">
-      <c r="A676" s="2" t="s">
+      <c r="A676" s="5" t="s">
         <v>1805</v>
       </c>
-      <c r="B676" s="2" t="s">
+      <c r="B676" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C676" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D676" s="2"/>
-      <c r="E676" s="2"/>
-      <c r="F676" s="2"/>
-      <c r="G676" s="2"/>
-      <c r="H676" s="2"/>
-      <c r="I676" s="2"/>
-      <c r="J676" s="2" t="s">
+      <c r="C676" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D676" s="5"/>
+      <c r="E676" s="5"/>
+      <c r="F676" s="5"/>
+      <c r="G676" s="5"/>
+      <c r="H676" s="5"/>
+      <c r="I676" s="5"/>
+      <c r="J676" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K676" s="2"/>
-      <c r="L676" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M676" s="2" t="s">
+      <c r="K676" s="5"/>
+      <c r="L676" s="7"/>
+      <c r="M676" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N676" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O676" s="2"/>
-      <c r="P676" s="2"/>
-      <c r="Q676" s="2"/>
-      <c r="R676" s="2"/>
-      <c r="S676" s="2"/>
-      <c r="T676" s="2"/>
-      <c r="U676" s="2" t="s">
+      <c r="N676" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O676" s="5"/>
+      <c r="P676" s="5"/>
+      <c r="Q676" s="5"/>
+      <c r="R676" s="5"/>
+      <c r="S676" s="5"/>
+      <c r="T676" s="5"/>
+      <c r="U676" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V676" s="2"/>
+      <c r="V676" s="5"/>
     </row>
     <row r="677" spans="1:22">
       <c r="A677" s="2" t="s">
@@ -40827,44 +40671,42 @@
       <c r="V726" s="2"/>
     </row>
     <row r="727" spans="1:22">
-      <c r="A727" s="2" t="s">
+      <c r="A727" s="5" t="s">
         <v>1856</v>
       </c>
-      <c r="B727" s="2" t="s">
+      <c r="B727" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C727" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D727" s="2"/>
-      <c r="E727" s="2"/>
-      <c r="F727" s="2"/>
-      <c r="G727" s="2"/>
-      <c r="H727" s="2"/>
-      <c r="I727" s="2"/>
-      <c r="J727" s="2" t="s">
+      <c r="C727" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D727" s="5"/>
+      <c r="E727" s="5"/>
+      <c r="F727" s="5"/>
+      <c r="G727" s="5"/>
+      <c r="H727" s="5"/>
+      <c r="I727" s="5"/>
+      <c r="J727" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K727" s="2"/>
-      <c r="L727" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M727" s="2" t="s">
+      <c r="K727" s="5"/>
+      <c r="L727" s="7"/>
+      <c r="M727" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="N727" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O727" s="2"/>
-      <c r="P727" s="2"/>
-      <c r="Q727" s="2"/>
-      <c r="R727" s="2"/>
-      <c r="S727" s="2"/>
-      <c r="T727" s="2"/>
-      <c r="U727" s="2" t="s">
+      <c r="N727" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O727" s="5"/>
+      <c r="P727" s="5"/>
+      <c r="Q727" s="5"/>
+      <c r="R727" s="5"/>
+      <c r="S727" s="5"/>
+      <c r="T727" s="5"/>
+      <c r="U727" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V727" s="2"/>
+      <c r="V727" s="5"/>
     </row>
     <row r="728" spans="1:22">
       <c r="A728" s="2" t="s">
@@ -41102,9 +40944,7 @@
         <v>690</v>
       </c>
       <c r="K732" s="2"/>
-      <c r="L732" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L732" s="7"/>
       <c r="M732" s="2" t="s">
         <v>131</v>
       </c>
@@ -41158,9 +40998,7 @@
         <v>690</v>
       </c>
       <c r="K733" s="2"/>
-      <c r="L733" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L733" s="7"/>
       <c r="M733" s="2" t="s">
         <v>131</v>
       </c>
@@ -41214,9 +41052,7 @@
         <v>690</v>
       </c>
       <c r="K734" s="2"/>
-      <c r="L734" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L734" s="7"/>
       <c r="M734" s="2" t="s">
         <v>131</v>
       </c>
@@ -41243,46 +41079,44 @@
       <c r="V734" s="2"/>
     </row>
     <row r="735" spans="1:22">
-      <c r="A735" s="2" t="s">
+      <c r="A735" s="5" t="s">
         <v>1864</v>
       </c>
-      <c r="B735" s="2" t="s">
+      <c r="B735" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C735" s="2" t="s">
+      <c r="C735" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D735" s="2"/>
-      <c r="E735" s="2"/>
-      <c r="F735" s="2"/>
-      <c r="G735" s="2"/>
-      <c r="H735" s="2"/>
-      <c r="I735" s="2"/>
-      <c r="J735" s="2" t="s">
+      <c r="D735" s="5"/>
+      <c r="E735" s="5"/>
+      <c r="F735" s="5"/>
+      <c r="G735" s="5"/>
+      <c r="H735" s="5"/>
+      <c r="I735" s="5"/>
+      <c r="J735" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="K735" s="2" t="s">
+      <c r="K735" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="L735" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M735" s="2" t="s">
+      <c r="L735" s="7"/>
+      <c r="M735" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="N735" s="2" t="s">
+      <c r="N735" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O735" s="2"/>
-      <c r="P735" s="2"/>
-      <c r="Q735" s="2"/>
-      <c r="R735" s="2"/>
-      <c r="S735" s="2"/>
-      <c r="T735" s="2"/>
-      <c r="U735" s="2" t="s">
+      <c r="O735" s="5"/>
+      <c r="P735" s="5"/>
+      <c r="Q735" s="5"/>
+      <c r="R735" s="5"/>
+      <c r="S735" s="5"/>
+      <c r="T735" s="5"/>
+      <c r="U735" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="V735" s="2" t="s">
+      <c r="V735" s="5" t="s">
         <v>876</v>
       </c>
     </row>
@@ -41715,44 +41549,42 @@
       <c r="V743" s="2"/>
     </row>
     <row r="744" spans="1:22">
-      <c r="A744" s="2" t="s">
+      <c r="A744" s="5" t="s">
         <v>1873</v>
       </c>
-      <c r="B744" s="2" t="s">
+      <c r="B744" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C744" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D744" s="2"/>
-      <c r="E744" s="2"/>
-      <c r="F744" s="2"/>
-      <c r="G744" s="2"/>
-      <c r="H744" s="2"/>
-      <c r="I744" s="2"/>
-      <c r="J744" s="2" t="s">
+      <c r="C744" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D744" s="5"/>
+      <c r="E744" s="5"/>
+      <c r="F744" s="5"/>
+      <c r="G744" s="5"/>
+      <c r="H744" s="5"/>
+      <c r="I744" s="5"/>
+      <c r="J744" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K744" s="2"/>
-      <c r="L744" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M744" s="2" t="s">
+      <c r="K744" s="5"/>
+      <c r="L744" s="7"/>
+      <c r="M744" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="N744" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O744" s="2"/>
-      <c r="P744" s="2"/>
-      <c r="Q744" s="2"/>
-      <c r="R744" s="2"/>
-      <c r="S744" s="2"/>
-      <c r="T744" s="2"/>
-      <c r="U744" s="2" t="s">
+      <c r="N744" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O744" s="5"/>
+      <c r="P744" s="5"/>
+      <c r="Q744" s="5"/>
+      <c r="R744" s="5"/>
+      <c r="S744" s="5"/>
+      <c r="T744" s="5"/>
+      <c r="U744" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V744" s="2"/>
+      <c r="V744" s="5"/>
     </row>
     <row r="745" spans="1:22">
       <c r="A745" s="2" t="s">
@@ -41990,9 +41822,7 @@
         <v>690</v>
       </c>
       <c r="K749" s="2"/>
-      <c r="L749" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L749" s="7"/>
       <c r="M749" s="2" t="s">
         <v>135</v>
       </c>
@@ -42046,9 +41876,7 @@
         <v>690</v>
       </c>
       <c r="K750" s="2"/>
-      <c r="L750" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L750" s="7"/>
       <c r="M750" s="2" t="s">
         <v>135</v>
       </c>
@@ -42102,9 +41930,7 @@
         <v>690</v>
       </c>
       <c r="K751" s="2"/>
-      <c r="L751" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L751" s="7"/>
       <c r="M751" s="2" t="s">
         <v>135</v>
       </c>
@@ -42158,9 +41984,7 @@
         <v>690</v>
       </c>
       <c r="K752" s="2"/>
-      <c r="L752" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L752" s="7"/>
       <c r="M752" s="2" t="s">
         <v>135</v>
       </c>
@@ -42214,9 +42038,7 @@
         <v>777</v>
       </c>
       <c r="K753" s="2"/>
-      <c r="L753" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L753" s="7"/>
       <c r="M753" s="2" t="s">
         <v>135</v>
       </c>
@@ -42270,9 +42092,7 @@
         <v>690</v>
       </c>
       <c r="K754" s="2"/>
-      <c r="L754" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L754" s="7"/>
       <c r="M754" s="2" t="s">
         <v>135</v>
       </c>
@@ -42384,9 +42204,7 @@
         <v>778</v>
       </c>
       <c r="K756" s="2"/>
-      <c r="L756" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L756" s="7"/>
       <c r="M756" s="2" t="s">
         <v>135</v>
       </c>
@@ -42440,9 +42258,7 @@
         <v>778</v>
       </c>
       <c r="K757" s="2"/>
-      <c r="L757" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L757" s="7"/>
       <c r="M757" s="2" t="s">
         <v>135</v>
       </c>
@@ -42496,9 +42312,7 @@
         <v>779</v>
       </c>
       <c r="K758" s="2"/>
-      <c r="L758" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L758" s="7"/>
       <c r="M758" s="2" t="s">
         <v>135</v>
       </c>
@@ -42554,9 +42368,7 @@
       <c r="K759" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="L759" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L759" s="7"/>
       <c r="M759" s="2" t="s">
         <v>135</v>
       </c>
@@ -42878,9 +42690,7 @@
         <v>690</v>
       </c>
       <c r="K765" s="2"/>
-      <c r="L765" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L765" s="7"/>
       <c r="M765" s="2" t="s">
         <v>137</v>
       </c>
@@ -42934,9 +42744,7 @@
         <v>690</v>
       </c>
       <c r="K766" s="2"/>
-      <c r="L766" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L766" s="7"/>
       <c r="M766" s="2" t="s">
         <v>137</v>
       </c>
@@ -43094,9 +42902,7 @@
         <v>690</v>
       </c>
       <c r="K769" s="2"/>
-      <c r="L769" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L769" s="7"/>
       <c r="M769" s="2" t="s">
         <v>138</v>
       </c>
@@ -43312,9 +43118,7 @@
         <v>690</v>
       </c>
       <c r="K773" s="2"/>
-      <c r="L773" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L773" s="7"/>
       <c r="M773" s="2" t="s">
         <v>139</v>
       </c>
@@ -43341,46 +43145,44 @@
       <c r="V773" s="2"/>
     </row>
     <row r="774" spans="1:22">
-      <c r="A774" s="2" t="s">
+      <c r="A774" s="5" t="s">
         <v>1902</v>
       </c>
-      <c r="B774" s="2" t="s">
+      <c r="B774" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C774" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D774" s="2"/>
-      <c r="E774" s="2"/>
-      <c r="F774" s="2"/>
-      <c r="G774" s="2"/>
-      <c r="H774" s="2"/>
-      <c r="I774" s="2"/>
-      <c r="J774" s="2" t="s">
+      <c r="C774" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D774" s="5"/>
+      <c r="E774" s="5"/>
+      <c r="F774" s="5"/>
+      <c r="G774" s="5"/>
+      <c r="H774" s="5"/>
+      <c r="I774" s="5"/>
+      <c r="J774" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="K774" s="2" t="s">
+      <c r="K774" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="L774" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M774" s="2" t="s">
+      <c r="L774" s="7"/>
+      <c r="M774" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="N774" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O774" s="2"/>
-      <c r="P774" s="2"/>
-      <c r="Q774" s="2"/>
-      <c r="R774" s="2"/>
-      <c r="S774" s="2"/>
-      <c r="T774" s="2"/>
-      <c r="U774" s="2" t="s">
+      <c r="N774" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O774" s="5"/>
+      <c r="P774" s="5"/>
+      <c r="Q774" s="5"/>
+      <c r="R774" s="5"/>
+      <c r="S774" s="5"/>
+      <c r="T774" s="5"/>
+      <c r="U774" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="V774" s="2" t="s">
+      <c r="V774" s="5" t="s">
         <v>880</v>
       </c>
     </row>
@@ -43620,9 +43422,7 @@
         <v>690</v>
       </c>
       <c r="K779" s="2"/>
-      <c r="L779" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L779" s="7"/>
       <c r="M779" s="2" t="s">
         <v>140</v>
       </c>
@@ -43649,46 +43449,44 @@
       <c r="V779" s="2"/>
     </row>
     <row r="780" spans="1:22">
-      <c r="A780" s="2" t="s">
+      <c r="A780" s="5" t="s">
         <v>1908</v>
       </c>
-      <c r="B780" s="2" t="s">
+      <c r="B780" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C780" s="2" t="s">
+      <c r="C780" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D780" s="2"/>
-      <c r="E780" s="2"/>
-      <c r="F780" s="2"/>
-      <c r="G780" s="2"/>
-      <c r="H780" s="2"/>
-      <c r="I780" s="2"/>
-      <c r="J780" s="2" t="s">
+      <c r="D780" s="5"/>
+      <c r="E780" s="5"/>
+      <c r="F780" s="5"/>
+      <c r="G780" s="5"/>
+      <c r="H780" s="5"/>
+      <c r="I780" s="5"/>
+      <c r="J780" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="K780" s="2" t="s">
+      <c r="K780" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="L780" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M780" s="2" t="s">
+      <c r="L780" s="7"/>
+      <c r="M780" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="N780" s="2" t="s">
+      <c r="N780" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O780" s="2"/>
-      <c r="P780" s="2"/>
-      <c r="Q780" s="2"/>
-      <c r="R780" s="2"/>
-      <c r="S780" s="2"/>
-      <c r="T780" s="2"/>
-      <c r="U780" s="2" t="s">
+      <c r="O780" s="5"/>
+      <c r="P780" s="5"/>
+      <c r="Q780" s="5"/>
+      <c r="R780" s="5"/>
+      <c r="S780" s="5"/>
+      <c r="T780" s="5"/>
+      <c r="U780" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="V780" s="2" t="s">
+      <c r="V780" s="5" t="s">
         <v>881</v>
       </c>
     </row>
@@ -43934,9 +43732,7 @@
       <c r="K785" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="L785" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L785" s="7"/>
       <c r="M785" s="2" t="s">
         <v>142</v>
       </c>
@@ -44563,46 +44359,44 @@
       <c r="V796" s="2"/>
     </row>
     <row r="797" spans="1:22">
-      <c r="A797" s="2" t="s">
+      <c r="A797" s="5" t="s">
         <v>1925</v>
       </c>
-      <c r="B797" s="2" t="s">
+      <c r="B797" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C797" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D797" s="2"/>
-      <c r="E797" s="2"/>
-      <c r="F797" s="2"/>
-      <c r="G797" s="2"/>
-      <c r="H797" s="2"/>
-      <c r="I797" s="2"/>
-      <c r="J797" s="2" t="s">
+      <c r="C797" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D797" s="5"/>
+      <c r="E797" s="5"/>
+      <c r="F797" s="5"/>
+      <c r="G797" s="5"/>
+      <c r="H797" s="5"/>
+      <c r="I797" s="5"/>
+      <c r="J797" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="K797" s="2" t="s">
+      <c r="K797" s="5" t="s">
         <v>886</v>
       </c>
-      <c r="L797" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M797" s="2" t="s">
+      <c r="L797" s="7"/>
+      <c r="M797" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="N797" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O797" s="2"/>
-      <c r="P797" s="2"/>
-      <c r="Q797" s="2"/>
-      <c r="R797" s="2"/>
-      <c r="S797" s="2"/>
-      <c r="T797" s="2"/>
-      <c r="U797" s="2" t="s">
+      <c r="N797" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O797" s="5"/>
+      <c r="P797" s="5"/>
+      <c r="Q797" s="5"/>
+      <c r="R797" s="5"/>
+      <c r="S797" s="5"/>
+      <c r="T797" s="5"/>
+      <c r="U797" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="V797" s="2" t="s">
+      <c r="V797" s="5" t="s">
         <v>886</v>
       </c>
     </row>
@@ -44842,9 +44636,7 @@
         <v>690</v>
       </c>
       <c r="K802" s="2"/>
-      <c r="L802" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L802" s="7"/>
       <c r="M802" s="2" t="s">
         <v>96</v>
       </c>
@@ -44898,9 +44690,7 @@
         <v>690</v>
       </c>
       <c r="K803" s="2"/>
-      <c r="L803" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L803" s="7"/>
       <c r="M803" s="2" t="s">
         <v>96</v>
       </c>
@@ -44954,9 +44744,7 @@
         <v>690</v>
       </c>
       <c r="K804" s="2"/>
-      <c r="L804" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L804" s="7"/>
       <c r="M804" s="2" t="s">
         <v>96</v>
       </c>
@@ -45185,46 +44973,44 @@
       <c r="V808" s="2"/>
     </row>
     <row r="809" spans="1:22">
-      <c r="A809" s="2" t="s">
+      <c r="A809" s="5" t="s">
         <v>1936</v>
       </c>
-      <c r="B809" s="2" t="s">
+      <c r="B809" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C809" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D809" s="2"/>
-      <c r="E809" s="2"/>
-      <c r="F809" s="2"/>
-      <c r="G809" s="2"/>
-      <c r="H809" s="2"/>
-      <c r="I809" s="2"/>
-      <c r="J809" s="2" t="s">
+      <c r="C809" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D809" s="5"/>
+      <c r="E809" s="5"/>
+      <c r="F809" s="5"/>
+      <c r="G809" s="5"/>
+      <c r="H809" s="5"/>
+      <c r="I809" s="5"/>
+      <c r="J809" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="K809" s="2" t="s">
+      <c r="K809" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="L809" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M809" s="2" t="s">
+      <c r="L809" s="7"/>
+      <c r="M809" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="N809" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O809" s="2"/>
-      <c r="P809" s="2"/>
-      <c r="Q809" s="2"/>
-      <c r="R809" s="2"/>
-      <c r="S809" s="2"/>
-      <c r="T809" s="2"/>
-      <c r="U809" s="2" t="s">
+      <c r="N809" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O809" s="5"/>
+      <c r="P809" s="5"/>
+      <c r="Q809" s="5"/>
+      <c r="R809" s="5"/>
+      <c r="S809" s="5"/>
+      <c r="T809" s="5"/>
+      <c r="U809" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="V809" s="2" t="s">
+      <c r="V809" s="5" t="s">
         <v>857</v>
       </c>
     </row>
@@ -45387,46 +45173,44 @@
       <c r="V812" s="2"/>
     </row>
     <row r="813" spans="1:22">
-      <c r="A813" s="2" t="s">
+      <c r="A813" s="5" t="s">
         <v>1940</v>
       </c>
-      <c r="B813" s="2" t="s">
+      <c r="B813" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C813" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D813" s="2"/>
-      <c r="E813" s="2"/>
-      <c r="F813" s="2"/>
-      <c r="G813" s="2"/>
-      <c r="H813" s="2"/>
-      <c r="I813" s="2"/>
-      <c r="J813" s="2" t="s">
+      <c r="C813" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D813" s="5"/>
+      <c r="E813" s="5"/>
+      <c r="F813" s="5"/>
+      <c r="G813" s="5"/>
+      <c r="H813" s="5"/>
+      <c r="I813" s="5"/>
+      <c r="J813" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="K813" s="2" t="s">
+      <c r="K813" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="L813" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M813" s="2" t="s">
+      <c r="L813" s="7"/>
+      <c r="M813" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="N813" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O813" s="2"/>
-      <c r="P813" s="2"/>
-      <c r="Q813" s="2"/>
-      <c r="R813" s="2"/>
-      <c r="S813" s="2"/>
-      <c r="T813" s="2"/>
-      <c r="U813" s="2" t="s">
+      <c r="N813" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O813" s="5"/>
+      <c r="P813" s="5"/>
+      <c r="Q813" s="5"/>
+      <c r="R813" s="5"/>
+      <c r="S813" s="5"/>
+      <c r="T813" s="5"/>
+      <c r="U813" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="V813" s="2" t="s">
+      <c r="V813" s="5" t="s">
         <v>888</v>
       </c>
     </row>
@@ -45747,46 +45531,44 @@
       <c r="V819" s="2"/>
     </row>
     <row r="820" spans="1:22">
-      <c r="A820" s="2" t="s">
+      <c r="A820" s="5" t="s">
         <v>1947</v>
       </c>
-      <c r="B820" s="2" t="s">
+      <c r="B820" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C820" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D820" s="2"/>
-      <c r="E820" s="2"/>
-      <c r="F820" s="2"/>
-      <c r="G820" s="2"/>
-      <c r="H820" s="2"/>
-      <c r="I820" s="2"/>
-      <c r="J820" s="2" t="s">
+      <c r="C820" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D820" s="5"/>
+      <c r="E820" s="5"/>
+      <c r="F820" s="5"/>
+      <c r="G820" s="5"/>
+      <c r="H820" s="5"/>
+      <c r="I820" s="5"/>
+      <c r="J820" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="K820" s="2" t="s">
+      <c r="K820" s="5" t="s">
         <v>889</v>
       </c>
-      <c r="L820" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M820" s="2" t="s">
+      <c r="L820" s="7"/>
+      <c r="M820" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="N820" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O820" s="2"/>
-      <c r="P820" s="2"/>
-      <c r="Q820" s="2"/>
-      <c r="R820" s="2"/>
-      <c r="S820" s="2"/>
-      <c r="T820" s="2"/>
-      <c r="U820" s="2" t="s">
+      <c r="N820" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O820" s="5"/>
+      <c r="P820" s="5"/>
+      <c r="Q820" s="5"/>
+      <c r="R820" s="5"/>
+      <c r="S820" s="5"/>
+      <c r="T820" s="5"/>
+      <c r="U820" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="V820" s="2" t="s">
+      <c r="V820" s="5" t="s">
         <v>889</v>
       </c>
     </row>
@@ -45949,46 +45731,44 @@
       <c r="V823" s="2"/>
     </row>
     <row r="824" spans="1:22">
-      <c r="A824" s="2" t="s">
+      <c r="A824" s="5" t="s">
         <v>1951</v>
       </c>
-      <c r="B824" s="2" t="s">
+      <c r="B824" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C824" s="2" t="s">
+      <c r="C824" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D824" s="2"/>
-      <c r="E824" s="2"/>
-      <c r="F824" s="2"/>
-      <c r="G824" s="2"/>
-      <c r="H824" s="2"/>
-      <c r="I824" s="2"/>
-      <c r="J824" s="2" t="s">
+      <c r="D824" s="5"/>
+      <c r="E824" s="5"/>
+      <c r="F824" s="5"/>
+      <c r="G824" s="5"/>
+      <c r="H824" s="5"/>
+      <c r="I824" s="5"/>
+      <c r="J824" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="K824" s="2" t="s">
+      <c r="K824" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="L824" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M824" s="2" t="s">
+      <c r="L824" s="7"/>
+      <c r="M824" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="N824" s="2" t="s">
+      <c r="N824" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O824" s="2"/>
-      <c r="P824" s="2"/>
-      <c r="Q824" s="2"/>
-      <c r="R824" s="2"/>
-      <c r="S824" s="2"/>
-      <c r="T824" s="2"/>
-      <c r="U824" s="2" t="s">
+      <c r="O824" s="5"/>
+      <c r="P824" s="5"/>
+      <c r="Q824" s="5"/>
+      <c r="R824" s="5"/>
+      <c r="S824" s="5"/>
+      <c r="T824" s="5"/>
+      <c r="U824" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="V824" s="2" t="s">
+      <c r="V824" s="5" t="s">
         <v>890</v>
       </c>
     </row>
@@ -46255,44 +46035,42 @@
       <c r="V829" s="2"/>
     </row>
     <row r="830" spans="1:22">
-      <c r="A830" s="2" t="s">
+      <c r="A830" s="5" t="s">
         <v>1957</v>
       </c>
-      <c r="B830" s="2" t="s">
+      <c r="B830" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C830" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D830" s="2"/>
-      <c r="E830" s="2"/>
-      <c r="F830" s="2"/>
-      <c r="G830" s="2"/>
-      <c r="H830" s="2"/>
-      <c r="I830" s="2"/>
-      <c r="J830" s="2" t="s">
+      <c r="C830" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D830" s="5"/>
+      <c r="E830" s="5"/>
+      <c r="F830" s="5"/>
+      <c r="G830" s="5"/>
+      <c r="H830" s="5"/>
+      <c r="I830" s="5"/>
+      <c r="J830" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K830" s="2"/>
-      <c r="L830" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M830" s="2" t="s">
+      <c r="K830" s="5"/>
+      <c r="L830" s="7"/>
+      <c r="M830" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="N830" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O830" s="2"/>
-      <c r="P830" s="2"/>
-      <c r="Q830" s="2"/>
-      <c r="R830" s="2"/>
-      <c r="S830" s="2"/>
-      <c r="T830" s="2"/>
-      <c r="U830" s="2" t="s">
+      <c r="N830" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O830" s="5"/>
+      <c r="P830" s="5"/>
+      <c r="Q830" s="5"/>
+      <c r="R830" s="5"/>
+      <c r="S830" s="5"/>
+      <c r="T830" s="5"/>
+      <c r="U830" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V830" s="2"/>
+      <c r="V830" s="5"/>
     </row>
     <row r="831" spans="1:22">
       <c r="A831" s="2" t="s">
@@ -46692,9 +46470,7 @@
         <v>690</v>
       </c>
       <c r="K838" s="2"/>
-      <c r="L838" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L838" s="7"/>
       <c r="M838" s="2" t="s">
         <v>150</v>
       </c>
@@ -46748,9 +46524,7 @@
         <v>690</v>
       </c>
       <c r="K839" s="2"/>
-      <c r="L839" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L839" s="7"/>
       <c r="M839" s="2" t="s">
         <v>150</v>
       </c>
@@ -46804,9 +46578,7 @@
         <v>690</v>
       </c>
       <c r="K840" s="2"/>
-      <c r="L840" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L840" s="7"/>
       <c r="M840" s="2" t="s">
         <v>150</v>
       </c>
@@ -46891,46 +46663,44 @@
       </c>
     </row>
     <row r="842" spans="1:22">
-      <c r="A842" s="2" t="s">
+      <c r="A842" s="5" t="s">
         <v>1969</v>
       </c>
-      <c r="B842" s="2" t="s">
+      <c r="B842" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C842" s="2" t="s">
+      <c r="C842" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D842" s="2"/>
-      <c r="E842" s="2"/>
-      <c r="F842" s="2"/>
-      <c r="G842" s="2"/>
-      <c r="H842" s="2"/>
-      <c r="I842" s="2"/>
-      <c r="J842" s="2" t="s">
+      <c r="D842" s="5"/>
+      <c r="E842" s="5"/>
+      <c r="F842" s="5"/>
+      <c r="G842" s="5"/>
+      <c r="H842" s="5"/>
+      <c r="I842" s="5"/>
+      <c r="J842" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="K842" s="2" t="s">
+      <c r="K842" s="5" t="s">
         <v>893</v>
       </c>
-      <c r="L842" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M842" s="2" t="s">
+      <c r="L842" s="7"/>
+      <c r="M842" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="N842" s="2" t="s">
+      <c r="N842" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O842" s="2"/>
-      <c r="P842" s="2"/>
-      <c r="Q842" s="2"/>
-      <c r="R842" s="2"/>
-      <c r="S842" s="2"/>
-      <c r="T842" s="2"/>
-      <c r="U842" s="2" t="s">
+      <c r="O842" s="5"/>
+      <c r="P842" s="5"/>
+      <c r="Q842" s="5"/>
+      <c r="R842" s="5"/>
+      <c r="S842" s="5"/>
+      <c r="T842" s="5"/>
+      <c r="U842" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="V842" s="2" t="s">
+      <c r="V842" s="5" t="s">
         <v>893</v>
       </c>
     </row>
@@ -47197,44 +46967,42 @@
       <c r="V847" s="2"/>
     </row>
     <row r="848" spans="1:22">
-      <c r="A848" s="2" t="s">
+      <c r="A848" s="5" t="s">
         <v>1975</v>
       </c>
-      <c r="B848" s="2" t="s">
+      <c r="B848" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C848" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D848" s="2"/>
-      <c r="E848" s="2"/>
-      <c r="F848" s="2"/>
-      <c r="G848" s="2"/>
-      <c r="H848" s="2"/>
-      <c r="I848" s="2"/>
-      <c r="J848" s="2" t="s">
+      <c r="C848" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D848" s="5"/>
+      <c r="E848" s="5"/>
+      <c r="F848" s="5"/>
+      <c r="G848" s="5"/>
+      <c r="H848" s="5"/>
+      <c r="I848" s="5"/>
+      <c r="J848" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K848" s="2"/>
-      <c r="L848" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M848" s="2" t="s">
+      <c r="K848" s="5"/>
+      <c r="L848" s="7"/>
+      <c r="M848" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="N848" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O848" s="2"/>
-      <c r="P848" s="2"/>
-      <c r="Q848" s="2"/>
-      <c r="R848" s="2"/>
-      <c r="S848" s="2"/>
-      <c r="T848" s="2"/>
-      <c r="U848" s="2" t="s">
+      <c r="N848" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O848" s="5"/>
+      <c r="P848" s="5"/>
+      <c r="Q848" s="5"/>
+      <c r="R848" s="5"/>
+      <c r="S848" s="5"/>
+      <c r="T848" s="5"/>
+      <c r="U848" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V848" s="2"/>
+      <c r="V848" s="5"/>
     </row>
     <row r="849" spans="1:22">
       <c r="A849" s="2" t="s">
@@ -47630,9 +47398,7 @@
         <v>690</v>
       </c>
       <c r="K856" s="2"/>
-      <c r="L856" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L856" s="7"/>
       <c r="M856" s="2" t="s">
         <v>153</v>
       </c>
@@ -47686,9 +47452,7 @@
         <v>690</v>
       </c>
       <c r="K857" s="2"/>
-      <c r="L857" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L857" s="7"/>
       <c r="M857" s="2" t="s">
         <v>153</v>
       </c>
@@ -47742,9 +47506,7 @@
         <v>690</v>
       </c>
       <c r="K858" s="2"/>
-      <c r="L858" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L858" s="7"/>
       <c r="M858" s="2" t="s">
         <v>153</v>
       </c>
@@ -47798,9 +47560,7 @@
         <v>690</v>
       </c>
       <c r="K859" s="2"/>
-      <c r="L859" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L859" s="7"/>
       <c r="M859" s="2" t="s">
         <v>153</v>
       </c>
@@ -47854,9 +47614,7 @@
         <v>690</v>
       </c>
       <c r="K860" s="2"/>
-      <c r="L860" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L860" s="7"/>
       <c r="M860" s="2" t="s">
         <v>153</v>
       </c>
@@ -47883,46 +47641,44 @@
       <c r="V860" s="2"/>
     </row>
     <row r="861" spans="1:22">
-      <c r="A861" s="2" t="s">
+      <c r="A861" s="5" t="s">
         <v>1988</v>
       </c>
-      <c r="B861" s="2" t="s">
+      <c r="B861" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C861" s="2" t="s">
+      <c r="C861" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D861" s="2"/>
-      <c r="E861" s="2"/>
-      <c r="F861" s="2"/>
-      <c r="G861" s="2"/>
-      <c r="H861" s="2"/>
-      <c r="I861" s="2"/>
-      <c r="J861" s="2" t="s">
+      <c r="D861" s="5"/>
+      <c r="E861" s="5"/>
+      <c r="F861" s="5"/>
+      <c r="G861" s="5"/>
+      <c r="H861" s="5"/>
+      <c r="I861" s="5"/>
+      <c r="J861" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="K861" s="2" t="s">
+      <c r="K861" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="L861" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M861" s="2" t="s">
+      <c r="L861" s="7"/>
+      <c r="M861" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="N861" s="2" t="s">
+      <c r="N861" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O861" s="2"/>
-      <c r="P861" s="2"/>
-      <c r="Q861" s="2"/>
-      <c r="R861" s="2"/>
-      <c r="S861" s="2"/>
-      <c r="T861" s="2"/>
-      <c r="U861" s="2" t="s">
+      <c r="O861" s="5"/>
+      <c r="P861" s="5"/>
+      <c r="Q861" s="5"/>
+      <c r="R861" s="5"/>
+      <c r="S861" s="5"/>
+      <c r="T861" s="5"/>
+      <c r="U861" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="V861" s="2" t="s">
+      <c r="V861" s="5" t="s">
         <v>890</v>
       </c>
     </row>
@@ -48189,44 +47945,42 @@
       <c r="V866" s="2"/>
     </row>
     <row r="867" spans="1:22">
-      <c r="A867" s="2" t="s">
+      <c r="A867" s="5" t="s">
         <v>1994</v>
       </c>
-      <c r="B867" s="2" t="s">
+      <c r="B867" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C867" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D867" s="2"/>
-      <c r="E867" s="2"/>
-      <c r="F867" s="2"/>
-      <c r="G867" s="2"/>
-      <c r="H867" s="2"/>
-      <c r="I867" s="2"/>
-      <c r="J867" s="2" t="s">
+      <c r="C867" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D867" s="5"/>
+      <c r="E867" s="5"/>
+      <c r="F867" s="5"/>
+      <c r="G867" s="5"/>
+      <c r="H867" s="5"/>
+      <c r="I867" s="5"/>
+      <c r="J867" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K867" s="2"/>
-      <c r="L867" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M867" s="2" t="s">
+      <c r="K867" s="5"/>
+      <c r="L867" s="7"/>
+      <c r="M867" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="N867" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O867" s="2"/>
-      <c r="P867" s="2"/>
-      <c r="Q867" s="2"/>
-      <c r="R867" s="2"/>
-      <c r="S867" s="2"/>
-      <c r="T867" s="2"/>
-      <c r="U867" s="2" t="s">
+      <c r="N867" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O867" s="5"/>
+      <c r="P867" s="5"/>
+      <c r="Q867" s="5"/>
+      <c r="R867" s="5"/>
+      <c r="S867" s="5"/>
+      <c r="T867" s="5"/>
+      <c r="U867" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V867" s="2"/>
+      <c r="V867" s="5"/>
     </row>
     <row r="868" spans="1:22">
       <c r="A868" s="2" t="s">
@@ -48622,9 +48376,7 @@
         <v>690</v>
       </c>
       <c r="K875" s="2"/>
-      <c r="L875" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L875" s="7"/>
       <c r="M875" s="2" t="s">
         <v>156</v>
       </c>
@@ -48651,46 +48403,44 @@
       <c r="V875" s="2"/>
     </row>
     <row r="876" spans="1:22">
-      <c r="A876" s="2" t="s">
+      <c r="A876" s="5" t="s">
         <v>2003</v>
       </c>
-      <c r="B876" s="2" t="s">
+      <c r="B876" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C876" s="2" t="s">
+      <c r="C876" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D876" s="2"/>
-      <c r="E876" s="2"/>
-      <c r="F876" s="2"/>
-      <c r="G876" s="2"/>
-      <c r="H876" s="2"/>
-      <c r="I876" s="2"/>
-      <c r="J876" s="2" t="s">
+      <c r="D876" s="5"/>
+      <c r="E876" s="5"/>
+      <c r="F876" s="5"/>
+      <c r="G876" s="5"/>
+      <c r="H876" s="5"/>
+      <c r="I876" s="5"/>
+      <c r="J876" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="K876" s="2" t="s">
+      <c r="K876" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="L876" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M876" s="2" t="s">
+      <c r="L876" s="7"/>
+      <c r="M876" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="N876" s="2" t="s">
+      <c r="N876" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O876" s="2"/>
-      <c r="P876" s="2"/>
-      <c r="Q876" s="2"/>
-      <c r="R876" s="2"/>
-      <c r="S876" s="2"/>
-      <c r="T876" s="2"/>
-      <c r="U876" s="2" t="s">
+      <c r="O876" s="5"/>
+      <c r="P876" s="5"/>
+      <c r="Q876" s="5"/>
+      <c r="R876" s="5"/>
+      <c r="S876" s="5"/>
+      <c r="T876" s="5"/>
+      <c r="U876" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="V876" s="2" t="s">
+      <c r="V876" s="5" t="s">
         <v>890</v>
       </c>
     </row>
@@ -48818,9 +48568,7 @@
         <v>689</v>
       </c>
       <c r="K879" s="2"/>
-      <c r="L879" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L879" s="7"/>
       <c r="M879" s="2" t="s">
         <v>157</v>
       </c>
@@ -49105,46 +48853,44 @@
       </c>
     </row>
     <row r="885" spans="1:22">
-      <c r="A885" s="2" t="s">
+      <c r="A885" s="5" t="s">
         <v>2012</v>
       </c>
-      <c r="B885" s="2" t="s">
+      <c r="B885" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C885" s="2" t="s">
+      <c r="C885" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D885" s="2"/>
-      <c r="E885" s="2"/>
-      <c r="F885" s="2"/>
-      <c r="G885" s="2"/>
-      <c r="H885" s="2"/>
-      <c r="I885" s="2"/>
-      <c r="J885" s="2" t="s">
+      <c r="D885" s="5"/>
+      <c r="E885" s="5"/>
+      <c r="F885" s="5"/>
+      <c r="G885" s="5"/>
+      <c r="H885" s="5"/>
+      <c r="I885" s="5"/>
+      <c r="J885" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="K885" s="2" t="s">
+      <c r="K885" s="5" t="s">
         <v>895</v>
       </c>
-      <c r="L885" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M885" s="2" t="s">
+      <c r="L885" s="7"/>
+      <c r="M885" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="N885" s="2" t="s">
+      <c r="N885" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O885" s="2"/>
-      <c r="P885" s="2"/>
-      <c r="Q885" s="2"/>
-      <c r="R885" s="2"/>
-      <c r="S885" s="2"/>
-      <c r="T885" s="2"/>
-      <c r="U885" s="2" t="s">
+      <c r="O885" s="5"/>
+      <c r="P885" s="5"/>
+      <c r="Q885" s="5"/>
+      <c r="R885" s="5"/>
+      <c r="S885" s="5"/>
+      <c r="T885" s="5"/>
+      <c r="U885" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="V885" s="2" t="s">
+      <c r="V885" s="5" t="s">
         <v>895</v>
       </c>
     </row>
@@ -49573,44 +49319,42 @@
       </c>
     </row>
     <row r="894" spans="1:22">
-      <c r="A894" s="2" t="s">
+      <c r="A894" s="5" t="s">
         <v>2021</v>
       </c>
-      <c r="B894" s="2" t="s">
+      <c r="B894" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C894" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D894" s="2"/>
-      <c r="E894" s="2"/>
-      <c r="F894" s="2"/>
-      <c r="G894" s="2"/>
-      <c r="H894" s="2"/>
-      <c r="I894" s="2"/>
-      <c r="J894" s="2" t="s">
+      <c r="C894" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D894" s="5"/>
+      <c r="E894" s="5"/>
+      <c r="F894" s="5"/>
+      <c r="G894" s="5"/>
+      <c r="H894" s="5"/>
+      <c r="I894" s="5"/>
+      <c r="J894" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K894" s="2"/>
-      <c r="L894" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M894" s="2" t="s">
+      <c r="K894" s="5"/>
+      <c r="L894" s="7"/>
+      <c r="M894" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="N894" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O894" s="2"/>
-      <c r="P894" s="2"/>
-      <c r="Q894" s="2"/>
-      <c r="R894" s="2"/>
-      <c r="S894" s="2"/>
-      <c r="T894" s="2"/>
-      <c r="U894" s="2" t="s">
+      <c r="N894" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O894" s="5"/>
+      <c r="P894" s="5"/>
+      <c r="Q894" s="5"/>
+      <c r="R894" s="5"/>
+      <c r="S894" s="5"/>
+      <c r="T894" s="5"/>
+      <c r="U894" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V894" s="2"/>
+      <c r="V894" s="5"/>
     </row>
     <row r="895" spans="1:22">
       <c r="A895" s="2" t="s">
@@ -49879,46 +49623,44 @@
       </c>
     </row>
     <row r="900" spans="1:22">
-      <c r="A900" s="2" t="s">
+      <c r="A900" s="5" t="s">
         <v>2027</v>
       </c>
-      <c r="B900" s="2" t="s">
+      <c r="B900" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C900" s="2" t="s">
+      <c r="C900" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D900" s="2"/>
-      <c r="E900" s="2"/>
-      <c r="F900" s="2"/>
-      <c r="G900" s="2"/>
-      <c r="H900" s="2"/>
-      <c r="I900" s="2"/>
-      <c r="J900" s="2" t="s">
+      <c r="D900" s="5"/>
+      <c r="E900" s="5"/>
+      <c r="F900" s="5"/>
+      <c r="G900" s="5"/>
+      <c r="H900" s="5"/>
+      <c r="I900" s="5"/>
+      <c r="J900" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="K900" s="2" t="s">
+      <c r="K900" s="5" t="s">
         <v>896</v>
       </c>
-      <c r="L900" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M900" s="2" t="s">
+      <c r="L900" s="7"/>
+      <c r="M900" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="N900" s="2" t="s">
+      <c r="N900" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O900" s="2"/>
-      <c r="P900" s="2"/>
-      <c r="Q900" s="2"/>
-      <c r="R900" s="2"/>
-      <c r="S900" s="2"/>
-      <c r="T900" s="2"/>
-      <c r="U900" s="2" t="s">
+      <c r="O900" s="5"/>
+      <c r="P900" s="5"/>
+      <c r="Q900" s="5"/>
+      <c r="R900" s="5"/>
+      <c r="S900" s="5"/>
+      <c r="T900" s="5"/>
+      <c r="U900" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="V900" s="2" t="s">
+      <c r="V900" s="5" t="s">
         <v>896</v>
       </c>
     </row>
@@ -50189,44 +49931,42 @@
       </c>
     </row>
     <row r="906" spans="1:22">
-      <c r="A906" s="2" t="s">
+      <c r="A906" s="5" t="s">
         <v>2033</v>
       </c>
-      <c r="B906" s="2" t="s">
+      <c r="B906" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C906" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D906" s="2"/>
-      <c r="E906" s="2"/>
-      <c r="F906" s="2"/>
-      <c r="G906" s="2"/>
-      <c r="H906" s="2"/>
-      <c r="I906" s="2"/>
-      <c r="J906" s="2" t="s">
+      <c r="C906" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D906" s="5"/>
+      <c r="E906" s="5"/>
+      <c r="F906" s="5"/>
+      <c r="G906" s="5"/>
+      <c r="H906" s="5"/>
+      <c r="I906" s="5"/>
+      <c r="J906" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K906" s="2"/>
-      <c r="L906" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M906" s="2" t="s">
+      <c r="K906" s="5"/>
+      <c r="L906" s="7"/>
+      <c r="M906" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="N906" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O906" s="2"/>
-      <c r="P906" s="2"/>
-      <c r="Q906" s="2"/>
-      <c r="R906" s="2"/>
-      <c r="S906" s="2"/>
-      <c r="T906" s="2"/>
-      <c r="U906" s="2" t="s">
+      <c r="N906" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O906" s="5"/>
+      <c r="P906" s="5"/>
+      <c r="Q906" s="5"/>
+      <c r="R906" s="5"/>
+      <c r="S906" s="5"/>
+      <c r="T906" s="5"/>
+      <c r="U906" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V906" s="2"/>
+      <c r="V906" s="5"/>
     </row>
     <row r="907" spans="1:22">
       <c r="A907" s="2" t="s">
@@ -50424,9 +50164,7 @@
       <c r="K910" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="L910" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L910" s="7"/>
       <c r="M910" s="2" t="s">
         <v>161</v>
       </c>
@@ -50555,46 +50293,44 @@
       <c r="V912" s="2"/>
     </row>
     <row r="913" spans="1:22">
-      <c r="A913" s="2" t="s">
+      <c r="A913" s="5" t="s">
         <v>2040</v>
       </c>
-      <c r="B913" s="2" t="s">
+      <c r="B913" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C913" s="2" t="s">
+      <c r="C913" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D913" s="2"/>
-      <c r="E913" s="2"/>
-      <c r="F913" s="2"/>
-      <c r="G913" s="2"/>
-      <c r="H913" s="2"/>
-      <c r="I913" s="2"/>
-      <c r="J913" s="2" t="s">
+      <c r="D913" s="5"/>
+      <c r="E913" s="5"/>
+      <c r="F913" s="5"/>
+      <c r="G913" s="5"/>
+      <c r="H913" s="5"/>
+      <c r="I913" s="5"/>
+      <c r="J913" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="K913" s="2" t="s">
+      <c r="K913" s="5" t="s">
         <v>898</v>
       </c>
-      <c r="L913" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M913" s="2" t="s">
+      <c r="L913" s="7"/>
+      <c r="M913" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="N913" s="2" t="s">
+      <c r="N913" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O913" s="2"/>
-      <c r="P913" s="2"/>
-      <c r="Q913" s="2"/>
-      <c r="R913" s="2"/>
-      <c r="S913" s="2"/>
-      <c r="T913" s="2"/>
-      <c r="U913" s="2" t="s">
+      <c r="O913" s="5"/>
+      <c r="P913" s="5"/>
+      <c r="Q913" s="5"/>
+      <c r="R913" s="5"/>
+      <c r="S913" s="5"/>
+      <c r="T913" s="5"/>
+      <c r="U913" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="V913" s="2" t="s">
+      <c r="V913" s="5" t="s">
         <v>898</v>
       </c>
     </row>
@@ -50865,44 +50601,42 @@
       </c>
     </row>
     <row r="919" spans="1:22">
-      <c r="A919" s="2" t="s">
+      <c r="A919" s="5" t="s">
         <v>2046</v>
       </c>
-      <c r="B919" s="2" t="s">
+      <c r="B919" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C919" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D919" s="2"/>
-      <c r="E919" s="2"/>
-      <c r="F919" s="2"/>
-      <c r="G919" s="2"/>
-      <c r="H919" s="2"/>
-      <c r="I919" s="2"/>
-      <c r="J919" s="2" t="s">
+      <c r="C919" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D919" s="5"/>
+      <c r="E919" s="5"/>
+      <c r="F919" s="5"/>
+      <c r="G919" s="5"/>
+      <c r="H919" s="5"/>
+      <c r="I919" s="5"/>
+      <c r="J919" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K919" s="2"/>
-      <c r="L919" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M919" s="2" t="s">
+      <c r="K919" s="5"/>
+      <c r="L919" s="7"/>
+      <c r="M919" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="N919" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O919" s="2"/>
-      <c r="P919" s="2"/>
-      <c r="Q919" s="2"/>
-      <c r="R919" s="2"/>
-      <c r="S919" s="2"/>
-      <c r="T919" s="2"/>
-      <c r="U919" s="2" t="s">
+      <c r="N919" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O919" s="5"/>
+      <c r="P919" s="5"/>
+      <c r="Q919" s="5"/>
+      <c r="R919" s="5"/>
+      <c r="S919" s="5"/>
+      <c r="T919" s="5"/>
+      <c r="U919" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V919" s="2"/>
+      <c r="V919" s="5"/>
     </row>
     <row r="920" spans="1:22">
       <c r="A920" s="2" t="s">
@@ -51109,44 +50843,42 @@
       <c r="V923" s="2"/>
     </row>
     <row r="924" spans="1:22">
-      <c r="A924" s="2" t="s">
+      <c r="A924" s="5" t="s">
         <v>2051</v>
       </c>
-      <c r="B924" s="2" t="s">
+      <c r="B924" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C924" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D924" s="2"/>
-      <c r="E924" s="2"/>
-      <c r="F924" s="2"/>
-      <c r="G924" s="2"/>
-      <c r="H924" s="2"/>
-      <c r="I924" s="2"/>
-      <c r="J924" s="2" t="s">
+      <c r="C924" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D924" s="5"/>
+      <c r="E924" s="5"/>
+      <c r="F924" s="5"/>
+      <c r="G924" s="5"/>
+      <c r="H924" s="5"/>
+      <c r="I924" s="5"/>
+      <c r="J924" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K924" s="2"/>
-      <c r="L924" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M924" s="2" t="s">
+      <c r="K924" s="5"/>
+      <c r="L924" s="7"/>
+      <c r="M924" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="N924" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O924" s="2"/>
-      <c r="P924" s="2"/>
-      <c r="Q924" s="2"/>
-      <c r="R924" s="2"/>
-      <c r="S924" s="2"/>
-      <c r="T924" s="2"/>
-      <c r="U924" s="2" t="s">
+      <c r="N924" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O924" s="5"/>
+      <c r="P924" s="5"/>
+      <c r="Q924" s="5"/>
+      <c r="R924" s="5"/>
+      <c r="S924" s="5"/>
+      <c r="T924" s="5"/>
+      <c r="U924" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V924" s="2"/>
+      <c r="V924" s="5"/>
     </row>
     <row r="925" spans="1:22">
       <c r="A925" s="2" t="s">
@@ -51338,9 +51070,7 @@
         <v>690</v>
       </c>
       <c r="K928" s="2"/>
-      <c r="L928" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L928" s="7"/>
       <c r="M928" s="2" t="s">
         <v>161</v>
       </c>
@@ -51467,44 +51197,42 @@
       <c r="V930" s="2"/>
     </row>
     <row r="931" spans="1:22">
-      <c r="A931" s="2" t="s">
+      <c r="A931" s="5" t="s">
         <v>2058</v>
       </c>
-      <c r="B931" s="2" t="s">
+      <c r="B931" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C931" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D931" s="2"/>
-      <c r="E931" s="2"/>
-      <c r="F931" s="2"/>
-      <c r="G931" s="2"/>
-      <c r="H931" s="2"/>
-      <c r="I931" s="2"/>
-      <c r="J931" s="2" t="s">
+      <c r="C931" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D931" s="5"/>
+      <c r="E931" s="5"/>
+      <c r="F931" s="5"/>
+      <c r="G931" s="5"/>
+      <c r="H931" s="5"/>
+      <c r="I931" s="5"/>
+      <c r="J931" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K931" s="2"/>
-      <c r="L931" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M931" s="2" t="s">
+      <c r="K931" s="5"/>
+      <c r="L931" s="7"/>
+      <c r="M931" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="N931" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O931" s="2"/>
-      <c r="P931" s="2"/>
-      <c r="Q931" s="2"/>
-      <c r="R931" s="2"/>
-      <c r="S931" s="2"/>
-      <c r="T931" s="2"/>
-      <c r="U931" s="2" t="s">
+      <c r="N931" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O931" s="5"/>
+      <c r="P931" s="5"/>
+      <c r="Q931" s="5"/>
+      <c r="R931" s="5"/>
+      <c r="S931" s="5"/>
+      <c r="T931" s="5"/>
+      <c r="U931" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V931" s="2"/>
+      <c r="V931" s="5"/>
     </row>
     <row r="932" spans="1:22">
       <c r="A932" s="2" t="s">
@@ -51638,9 +51366,7 @@
         <v>690</v>
       </c>
       <c r="K934" s="2"/>
-      <c r="L934" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L934" s="7"/>
       <c r="M934" s="2" t="s">
         <v>164</v>
       </c>
@@ -51864,9 +51590,7 @@
         <v>690</v>
       </c>
       <c r="K938" s="2"/>
-      <c r="L938" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L938" s="7"/>
       <c r="M938" s="2" t="s">
         <v>164</v>
       </c>
@@ -51893,46 +51617,44 @@
       <c r="V938" s="2"/>
     </row>
     <row r="939" spans="1:22">
-      <c r="A939" s="2" t="s">
+      <c r="A939" s="5" t="s">
         <v>2066</v>
       </c>
-      <c r="B939" s="2" t="s">
+      <c r="B939" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C939" s="2" t="s">
+      <c r="C939" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D939" s="2"/>
-      <c r="E939" s="2"/>
-      <c r="F939" s="2"/>
-      <c r="G939" s="2"/>
-      <c r="H939" s="2"/>
-      <c r="I939" s="2"/>
-      <c r="J939" s="2" t="s">
+      <c r="D939" s="5"/>
+      <c r="E939" s="5"/>
+      <c r="F939" s="5"/>
+      <c r="G939" s="5"/>
+      <c r="H939" s="5"/>
+      <c r="I939" s="5"/>
+      <c r="J939" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="K939" s="2" t="s">
+      <c r="K939" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="L939" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M939" s="2" t="s">
+      <c r="L939" s="7"/>
+      <c r="M939" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="N939" s="2" t="s">
+      <c r="N939" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="O939" s="2"/>
-      <c r="P939" s="2"/>
-      <c r="Q939" s="2"/>
-      <c r="R939" s="2"/>
-      <c r="S939" s="2"/>
-      <c r="T939" s="2"/>
-      <c r="U939" s="2" t="s">
+      <c r="O939" s="5"/>
+      <c r="P939" s="5"/>
+      <c r="Q939" s="5"/>
+      <c r="R939" s="5"/>
+      <c r="S939" s="5"/>
+      <c r="T939" s="5"/>
+      <c r="U939" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="V939" s="2" t="s">
+      <c r="V939" s="5" t="s">
         <v>842</v>
       </c>
     </row>
@@ -52180,9 +51902,7 @@
         <v>690</v>
       </c>
       <c r="K944" s="2"/>
-      <c r="L944" s="4" t="s">
-        <v>901</v>
-      </c>
+      <c r="L944" s="7"/>
       <c r="M944" s="2" t="s">
         <v>165</v>
       </c>
@@ -52529,44 +52249,42 @@
       </c>
     </row>
     <row r="951" spans="1:22">
-      <c r="A951" s="2" t="s">
+      <c r="A951" s="5" t="s">
         <v>2078</v>
       </c>
-      <c r="B951" s="2" t="s">
+      <c r="B951" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C951" s="2" t="s">
+      <c r="C951" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D951" s="2"/>
-      <c r="E951" s="2"/>
-      <c r="F951" s="2"/>
-      <c r="G951" s="2"/>
-      <c r="H951" s="2"/>
-      <c r="I951" s="2"/>
-      <c r="J951" s="2" t="s">
+      <c r="D951" s="5"/>
+      <c r="E951" s="5"/>
+      <c r="F951" s="5"/>
+      <c r="G951" s="5"/>
+      <c r="H951" s="5"/>
+      <c r="I951" s="5"/>
+      <c r="J951" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K951" s="2"/>
-      <c r="L951" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M951" s="2" t="s">
+      <c r="K951" s="5"/>
+      <c r="L951" s="7"/>
+      <c r="M951" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="N951" s="2" t="s">
+      <c r="N951" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="O951" s="2"/>
-      <c r="P951" s="2"/>
-      <c r="Q951" s="2"/>
-      <c r="R951" s="2"/>
-      <c r="S951" s="2"/>
-      <c r="T951" s="2"/>
-      <c r="U951" s="2" t="s">
+      <c r="O951" s="5"/>
+      <c r="P951" s="5"/>
+      <c r="Q951" s="5"/>
+      <c r="R951" s="5"/>
+      <c r="S951" s="5"/>
+      <c r="T951" s="5"/>
+      <c r="U951" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V951" s="2"/>
+      <c r="V951" s="5"/>
     </row>
     <row r="952" spans="1:22">
       <c r="A952" s="2" t="s">
